--- a/Excel Files/Pivot_Tables_and_Charts.xlsx
+++ b/Excel Files/Pivot_Tables_and_Charts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Data_Analyst_Projects_Excel\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4C4502-FFCE-4A3A-BEB5-9A76EB25E35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357542D5-51C2-488F-B70E-9DAC91051083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0A6FA225-84FF-421B-974B-4E9A80F7474D}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="49">
   <si>
     <t>Sales Person</t>
   </si>
@@ -174,9 +174,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
@@ -184,6 +181,12 @@
   </si>
   <si>
     <t>(All)</t>
+  </si>
+  <si>
+    <t>Sum of Customers</t>
+  </si>
+  <si>
+    <t>Top 5 Product</t>
   </si>
 </sst>
 </file>
@@ -222,13 +225,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,7 +268,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Pivot tables and Charts.xlsx]Pivot Tables!PivotTable5</c:name>
+    <c:name>[Pivot_Tables_and_Charts.xlsx]Pivot Tables!PivotTable5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -298,7 +302,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> 5  Products by Geography</a:t>
+              <a:t> 5  Products by Sales Person</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -421,7 +425,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot Tables'!$E$3</c:f>
+              <c:f>'Pivot Tables'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -442,20 +446,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pivot Tables'!$D$4:$D$9</c:f>
+              <c:f>'Pivot Tables'!$C$5:$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Almond Choco</c:v>
+                  <c:v>Caramel Stuffed Bars</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Baker's Choco Chips</c:v>
+                  <c:v>Drinking Coco</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Caramel Stuffed Bars</c:v>
+                  <c:v>Mint Chip Choco</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Eclairs</c:v>
+                  <c:v>Organic Choco Syrup</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Peanut Butter Cubes</c:v>
@@ -465,24 +469,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot Tables'!$E$4:$E$9</c:f>
+              <c:f>'Pivot Tables'!$D$5:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>34279</c:v>
+                  <c:v>137795</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28973</c:v>
+                  <c:v>137004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34237</c:v>
+                  <c:v>145418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25151</c:v>
+                  <c:v>139531</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32396</c:v>
+                  <c:v>148981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,7 +1351,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-AU" sz="1100" baseline="0"/>
-            <a:t>4. Top 10 Products by customers. </a:t>
+            <a:t>4. Top 5 Products by customers. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1376,19 +1380,19 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Geography">
@@ -1411,7 +1415,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1421,7 +1425,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4883150" y="44450"/>
+              <a:off x="241300" y="190500"/>
               <a:ext cx="1828800" cy="2127250"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1454,16 +1458,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1548,7 +1552,514 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Amount" numFmtId="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="16184"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="16184" count="506">
+        <n v="1624"/>
+        <n v="6706"/>
+        <n v="959"/>
+        <n v="9632"/>
+        <n v="2100"/>
+        <n v="8869"/>
+        <n v="2681"/>
+        <n v="5012"/>
+        <n v="1281"/>
+        <n v="4991"/>
+        <n v="1785"/>
+        <n v="3983"/>
+        <n v="2646"/>
+        <n v="252"/>
+        <n v="2464"/>
+        <n v="2114"/>
+        <n v="7693"/>
+        <n v="15610"/>
+        <n v="336"/>
+        <n v="9443"/>
+        <n v="8155"/>
+        <n v="1701"/>
+        <n v="2205"/>
+        <n v="1771"/>
+        <n v="10311"/>
+        <n v="21"/>
+        <n v="1974"/>
+        <n v="6314"/>
+        <n v="4683"/>
+        <n v="6398"/>
+        <n v="553"/>
+        <n v="7021"/>
+        <n v="5817"/>
+        <n v="3976"/>
+        <n v="1134"/>
+        <n v="6027"/>
+        <n v="1904"/>
+        <n v="3262"/>
+        <n v="2289"/>
+        <n v="6986"/>
+        <n v="4417"/>
+        <n v="1442"/>
+        <n v="2415"/>
+        <n v="238"/>
+        <n v="4949"/>
+        <n v="5075"/>
+        <n v="9198"/>
+        <n v="3339"/>
+        <n v="5019"/>
+        <n v="16184"/>
+        <n v="497"/>
+        <n v="8211"/>
+        <n v="6580"/>
+        <n v="4760"/>
+        <n v="5439"/>
+        <n v="1463"/>
+        <n v="7777"/>
+        <n v="1085"/>
+        <n v="182"/>
+        <n v="4242"/>
+        <n v="6118"/>
+        <n v="2317"/>
+        <n v="938"/>
+        <n v="9709"/>
+        <n v="4487"/>
+        <n v="4018"/>
+        <n v="861"/>
+        <n v="5586"/>
+        <n v="2226"/>
+        <n v="14329"/>
+        <n v="8463"/>
+        <n v="2891"/>
+        <n v="3773"/>
+        <n v="854"/>
+        <n v="4970"/>
+        <n v="98"/>
+        <n v="13391"/>
+        <n v="8890"/>
+        <n v="56"/>
+        <n v="3808"/>
+        <n v="63"/>
+        <n v="7812"/>
+        <n v="973"/>
+        <n v="567"/>
+        <n v="2471"/>
+        <n v="7189"/>
+        <n v="7455"/>
+        <n v="3108"/>
+        <n v="469"/>
+        <n v="2737"/>
+        <n v="4305"/>
+        <n v="2408"/>
+        <n v="12348"/>
+        <n v="3689"/>
+        <n v="2870"/>
+        <n v="798"/>
+        <n v="2933"/>
+        <n v="2744"/>
+        <n v="9772"/>
+        <n v="1568"/>
+        <n v="11417"/>
+        <n v="6748"/>
+        <n v="1407"/>
+        <n v="2023"/>
+        <n v="5236"/>
+        <n v="1925"/>
+        <n v="6608"/>
+        <n v="8008"/>
+        <n v="1428"/>
+        <n v="525"/>
+        <n v="1505"/>
+        <n v="6755"/>
+        <n v="11571"/>
+        <n v="2541"/>
+        <n v="1526"/>
+        <n v="6125"/>
+        <n v="847"/>
+        <n v="4753"/>
+        <n v="2793"/>
+        <n v="4606"/>
+        <n v="5551"/>
+        <n v="6657"/>
+        <n v="4438"/>
+        <n v="168"/>
+        <n v="6391"/>
+        <n v="518"/>
+        <n v="5677"/>
+        <n v="6048"/>
+        <n v="3752"/>
+        <n v="4480"/>
+        <n v="259"/>
+        <n v="42"/>
+        <n v="2478"/>
+        <n v="7847"/>
+        <n v="9926"/>
+        <n v="819"/>
+        <n v="3052"/>
+        <n v="6832"/>
+        <n v="2016"/>
+        <n v="7322"/>
+        <n v="357"/>
+        <n v="3192"/>
+        <n v="8435"/>
+        <n v="0"/>
+        <n v="8862"/>
+        <n v="3556"/>
+        <n v="7280"/>
+        <n v="3402"/>
+        <n v="4592"/>
+        <n v="7833"/>
+        <n v="7651"/>
+        <n v="2275"/>
+        <n v="5670"/>
+        <n v="2135"/>
+        <n v="2779"/>
+        <n v="12950"/>
+        <n v="3794"/>
+        <n v="2583"/>
+        <n v="4585"/>
+        <n v="1652"/>
+        <n v="2009"/>
+        <n v="3388"/>
+        <n v="623"/>
+        <n v="10073"/>
+        <n v="1561"/>
+        <n v="11522"/>
+        <n v="3059"/>
+        <n v="2324"/>
+        <n v="4956"/>
+        <n v="5355"/>
+        <n v="7259"/>
+        <n v="6279"/>
+        <n v="3864"/>
+        <n v="6146"/>
+        <n v="2639"/>
+        <n v="1890"/>
+        <n v="1932"/>
+        <n v="6300"/>
+        <n v="560"/>
+        <n v="2856"/>
+        <n v="707"/>
+        <n v="3598"/>
+        <n v="6853"/>
+        <n v="4725"/>
+        <n v="10304"/>
+        <n v="1274"/>
+        <n v="3101"/>
+        <n v="1057"/>
+        <n v="5306"/>
+        <n v="1778"/>
+        <n v="1638"/>
+        <n v="154"/>
+        <n v="9835"/>
+        <n v="7273"/>
+        <n v="6909"/>
+        <n v="3920"/>
+        <n v="4858"/>
+        <n v="3549"/>
+        <n v="966"/>
+        <n v="385"/>
+        <n v="2219"/>
+        <n v="2954"/>
+        <n v="280"/>
+        <n v="4802"/>
+        <n v="4137"/>
+        <n v="9051"/>
+        <n v="2919"/>
+        <n v="5915"/>
+        <n v="2562"/>
+        <n v="8813"/>
+        <n v="6111"/>
+        <n v="3507"/>
+        <n v="4319"/>
+        <n v="609"/>
+        <n v="6370"/>
+        <n v="5474"/>
+        <n v="3164"/>
+        <n v="1302"/>
+        <n v="7308"/>
+        <n v="6132"/>
+        <n v="3472"/>
+        <n v="9660"/>
+        <n v="2436"/>
+        <n v="9506"/>
+        <n v="245"/>
+        <n v="2702"/>
+        <n v="700"/>
+        <n v="3759"/>
+        <n v="1589"/>
+        <n v="5194"/>
+        <n v="945"/>
+        <n v="1988"/>
+        <n v="6734"/>
+        <n v="217"/>
+        <n v="4424"/>
+        <n v="189"/>
+        <n v="490"/>
+        <n v="434"/>
+        <n v="10129"/>
+        <n v="6433"/>
+        <n v="2212"/>
+        <n v="3829"/>
+        <n v="5775"/>
+        <n v="1071"/>
+        <n v="2863"/>
+        <n v="1617"/>
+        <n v="6818"/>
+        <n v="3094"/>
+        <n v="2989"/>
+        <n v="2268"/>
+        <n v="7511"/>
+        <n v="4326"/>
+        <n v="4935"/>
+        <n v="4781"/>
+        <n v="7483"/>
+        <n v="6860"/>
+        <n v="9002"/>
+        <n v="1400"/>
+        <n v="4053"/>
+        <n v="2149"/>
+        <n v="3640"/>
+        <n v="630"/>
+        <n v="2429"/>
+        <n v="2142"/>
+        <n v="6454"/>
+        <n v="8841"/>
+        <n v="4270"/>
+        <n v="3416"/>
+        <n v="6181"/>
+        <n v="4550"/>
+        <n v="1022"/>
+        <n v="2527"/>
+        <n v="1750"/>
+        <n v="6559"/>
+        <n v="413"/>
+        <n v="3311"/>
+        <n v="5558"/>
+        <n v="5992"/>
+        <n v="616"/>
+        <n v="742"/>
+        <n v="9247"/>
+        <n v="2443"/>
+        <n v="4494"/>
+        <n v="1799"/>
+        <n v="84"/>
+        <n v="7658"/>
+        <n v="2513"/>
+        <n v="7140"/>
+        <n v="3185"/>
+        <n v="805"/>
+        <n v="714"/>
+        <n v="441"/>
+        <n v="532"/>
+        <n v="5278"/>
+        <n v="3570"/>
+        <n v="1414"/>
+        <n v="7056"/>
+        <n v="5691"/>
+        <n v="12222"/>
+        <n v="2807"/>
+        <n v="3073"/>
+        <n v="1554"/>
+        <n v="10486"/>
+        <n v="2961"/>
+        <n v="3969"/>
+        <n v="8295"/>
+        <n v="140"/>
+        <n v="175"/>
+        <n v="4879"/>
+        <n v="1050"/>
+        <n v="3745"/>
+        <n v="777"/>
+        <n v="3605"/>
+        <n v="5495"/>
+        <n v="4445"/>
+        <n v="13461"/>
+        <n v="8351"/>
+        <n v="3423"/>
+        <n v="5383"/>
+        <n v="8918"/>
+        <n v="6174"/>
+        <n v="952"/>
+        <n v="3360"/>
+        <n v="3199"/>
+        <n v="9310"/>
+        <n v="2296"/>
+        <n v="3290"/>
+        <n v="273"/>
+        <n v="2093"/>
+        <n v="2975"/>
+        <n v="3941"/>
+        <n v="3836"/>
+        <n v="4039"/>
+        <n v="6496"/>
+        <n v="6160"/>
+        <n v="3514"/>
+        <n v="4823"/>
+        <n v="1155"/>
+        <n v="5537"/>
+        <n v="1421"/>
+        <n v="6265"/>
+        <n v="7553"/>
+        <n v="1337"/>
+        <n v="1477"/>
+        <n v="539"/>
+        <n v="6916"/>
+        <n v="7490"/>
+        <n v="1687"/>
+        <n v="7826"/>
+        <n v="5845"/>
+        <n v="2576"/>
+        <n v="721"/>
+        <n v="924"/>
+        <n v="6650"/>
+        <n v="1533"/>
+        <n v="399"/>
+        <n v="6356"/>
+        <n v="1106"/>
+        <n v="203"/>
+        <n v="1239"/>
+        <n v="3374"/>
+        <n v="1743"/>
+        <n v="1715"/>
+        <n v="10941"/>
+        <n v="770"/>
+        <n v="3703"/>
+        <n v="7385"/>
+        <n v="5544"/>
+        <n v="6321"/>
+        <n v="6104"/>
+        <n v="3010"/>
+        <n v="10220"/>
+        <n v="11256"/>
+        <n v="3367"/>
+        <n v="3143"/>
+        <n v="1869"/>
+        <n v="6783"/>
+        <n v="5698"/>
+        <n v="1099"/>
+        <n v="11466"/>
+        <n v="2499"/>
+        <n v="7539"/>
+        <n v="9513"/>
+        <n v="1393"/>
+        <n v="581"/>
+        <n v="4662"/>
+        <n v="3899"/>
+        <n v="8960"/>
+        <n v="4396"/>
+        <n v="812"/>
+        <n v="10185"/>
+        <n v="2233"/>
+        <n v="2282"/>
+        <n v="6552"/>
+        <n v="6531"/>
+        <n v="3409"/>
+        <n v="1603"/>
+        <n v="1834"/>
+        <n v="602"/>
+        <n v="3157"/>
+        <n v="8316"/>
+        <n v="7588"/>
+        <n v="9576"/>
+        <n v="6188"/>
+        <n v="2485"/>
+        <n v="2072"/>
+        <n v="8113"/>
+        <n v="4123"/>
+        <n v="1001"/>
+        <n v="7077"/>
+        <n v="511"/>
+        <n v="11606"/>
+        <n v="8533"/>
+        <n v="8995"/>
+        <n v="7105"/>
+        <n v="1204"/>
+        <n v="9086"/>
+        <n v="1232"/>
+        <n v="4179"/>
+        <n v="4389"/>
+        <n v="10164"/>
+        <n v="5292"/>
+        <n v="1358"/>
+        <n v="2373"/>
+        <n v="14147"/>
+        <n v="8085"/>
+        <n v="3710"/>
+        <n v="4998"/>
+        <n v="3206"/>
+        <n v="11592"/>
+        <n v="5733"/>
+        <n v="5810"/>
+        <n v="9814"/>
+        <n v="8848"/>
+        <n v="7126"/>
+        <n v="1253"/>
+        <n v="13678"/>
+        <n v="6244"/>
+        <n v="7014"/>
+        <n v="3234"/>
+        <n v="3892"/>
+        <n v="644"/>
+        <n v="2765"/>
+        <n v="4543"/>
+        <n v="371"/>
+        <n v="756"/>
+        <n v="4774"/>
+        <n v="6489"/>
+        <n v="4284"/>
+        <n v="8099"/>
+        <n v="1449"/>
+        <n v="7035"/>
+        <n v="105"/>
+        <n v="5642"/>
+        <n v="1981"/>
+        <n v="1036"/>
+        <n v="1470"/>
+        <n v="9058"/>
+        <n v="3885"/>
+        <n v="6797"/>
+        <n v="1386"/>
+        <n v="6139"/>
+        <n v="9527"/>
+        <n v="6958"/>
+        <n v="5096"/>
+        <n v="5936"/>
+        <n v="11025"/>
+        <n v="2905"/>
+        <n v="7294"/>
+        <n v="1946"/>
+        <n v="2898"/>
+        <n v="1806"/>
+        <n v="12250"/>
+        <n v="4151"/>
+        <n v="5397"/>
+        <n v="4529"/>
+        <n v="7112"/>
+        <n v="1288"/>
+        <n v="7238"/>
+        <n v="3997"/>
+        <n v="1323"/>
+        <n v="5663"/>
+        <n v="3283"/>
+        <n v="1246"/>
+        <n v="4207"/>
+        <n v="2401"/>
+        <n v="2548"/>
+        <n v="6013"/>
+        <n v="6594"/>
+        <n v="3003"/>
+        <n v="1722"/>
+        <n v="6790"/>
+        <n v="4333"/>
+        <n v="1848"/>
+        <n v="4144"/>
+        <n v="3990"/>
+        <n v="2107"/>
+        <n v="2569"/>
+        <n v="665"/>
+        <n v="6286"/>
+        <n v="1330"/>
+        <n v="8778"/>
+        <n v="9289"/>
+        <n v="9492"/>
+        <n v="5026"/>
+        <n v="3850"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Customers" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="549" count="145">
@@ -1714,4537 +2225,5393 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1624"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="6706"/>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
     <x v="1"/>
-    <x v="2"/>
-    <n v="959"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="9632"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="4"/>
-    <n v="2100"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="1"/>
-    <x v="5"/>
-    <n v="8869"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
     <x v="5"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
     <x v="6"/>
-    <n v="2681"/>
+    <x v="6"/>
     <x v="6"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="7"/>
-    <n v="5012"/>
     <x v="7"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="5"/>
     <x v="4"/>
     <x v="8"/>
-    <n v="1281"/>
     <x v="8"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
     <x v="8"/>
-    <n v="4991"/>
     <x v="9"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="4"/>
-    <n v="1785"/>
     <x v="10"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <x v="9"/>
-    <n v="3983"/>
     <x v="11"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="2"/>
     <x v="4"/>
     <x v="10"/>
-    <n v="2646"/>
     <x v="12"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
     <x v="11"/>
-    <n v="252"/>
+    <x v="13"/>
     <x v="6"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="4"/>
-    <n v="2464"/>
+    <x v="14"/>
     <x v="13"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="12"/>
-    <n v="2114"/>
+    <x v="15"/>
     <x v="14"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <x v="6"/>
-    <n v="7693"/>
+    <x v="16"/>
     <x v="15"/>
   </r>
   <r>
     <x v="6"/>
     <x v="5"/>
     <x v="13"/>
-    <n v="15610"/>
+    <x v="17"/>
     <x v="16"/>
   </r>
   <r>
     <x v="3"/>
     <x v="5"/>
     <x v="7"/>
-    <n v="336"/>
+    <x v="18"/>
     <x v="11"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="13"/>
-    <n v="9443"/>
+    <x v="19"/>
     <x v="17"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
     <x v="14"/>
-    <n v="8155"/>
+    <x v="20"/>
     <x v="18"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <x v="14"/>
-    <n v="1701"/>
+    <x v="21"/>
     <x v="13"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
     <x v="7"/>
-    <n v="2205"/>
+    <x v="22"/>
     <x v="19"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="15"/>
-    <n v="1771"/>
+    <x v="23"/>
     <x v="20"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="16"/>
-    <n v="2114"/>
+    <x v="15"/>
     <x v="21"/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
     <x v="11"/>
-    <n v="10311"/>
+    <x v="24"/>
     <x v="22"/>
   </r>
   <r>
     <x v="8"/>
     <x v="3"/>
     <x v="10"/>
-    <n v="21"/>
+    <x v="25"/>
     <x v="23"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="13"/>
-    <n v="1974"/>
+    <x v="26"/>
     <x v="24"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
     <x v="14"/>
-    <n v="6314"/>
+    <x v="27"/>
     <x v="25"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="14"/>
-    <n v="4683"/>
+    <x v="28"/>
     <x v="26"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="17"/>
-    <n v="6398"/>
+    <x v="29"/>
     <x v="27"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
     <x v="15"/>
-    <n v="553"/>
+    <x v="30"/>
     <x v="25"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="7021"/>
+    <x v="31"/>
     <x v="28"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
     <x v="7"/>
-    <n v="5817"/>
+    <x v="32"/>
     <x v="9"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
     <x v="8"/>
-    <n v="3976"/>
+    <x v="33"/>
     <x v="29"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
     <x v="18"/>
-    <n v="1134"/>
+    <x v="34"/>
     <x v="30"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="19"/>
-    <n v="6027"/>
+    <x v="35"/>
     <x v="11"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <x v="10"/>
-    <n v="1904"/>
+    <x v="36"/>
     <x v="31"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
     <x v="1"/>
-    <n v="3262"/>
+    <x v="37"/>
     <x v="8"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
     <x v="18"/>
-    <n v="2289"/>
+    <x v="38"/>
     <x v="32"/>
   </r>
   <r>
     <x v="6"/>
     <x v="5"/>
     <x v="18"/>
-    <n v="6986"/>
+    <x v="39"/>
     <x v="33"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="14"/>
-    <n v="4417"/>
+    <x v="40"/>
     <x v="34"/>
   </r>
   <r>
     <x v="4"/>
     <x v="5"/>
     <x v="16"/>
-    <n v="1442"/>
+    <x v="41"/>
     <x v="25"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="8"/>
-    <n v="2415"/>
+    <x v="42"/>
     <x v="35"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="15"/>
-    <n v="238"/>
+    <x v="43"/>
     <x v="36"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <x v="14"/>
-    <n v="4949"/>
+    <x v="44"/>
     <x v="37"/>
   </r>
   <r>
     <x v="6"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="5075"/>
+    <x v="45"/>
     <x v="33"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
     <x v="10"/>
-    <n v="9198"/>
+    <x v="46"/>
     <x v="38"/>
   </r>
   <r>
     <x v="4"/>
     <x v="5"/>
     <x v="12"/>
-    <n v="3339"/>
+    <x v="47"/>
     <x v="8"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
     <x v="9"/>
-    <n v="5019"/>
+    <x v="48"/>
     <x v="39"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
     <x v="10"/>
-    <n v="16184"/>
+    <x v="49"/>
     <x v="40"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
     <x v="20"/>
-    <n v="497"/>
+    <x v="50"/>
     <x v="41"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
     <x v="12"/>
-    <n v="8211"/>
+    <x v="51"/>
     <x v="8"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="19"/>
-    <n v="6580"/>
+    <x v="52"/>
     <x v="28"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="11"/>
-    <n v="4760"/>
+    <x v="53"/>
     <x v="42"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="4"/>
-    <n v="5439"/>
+    <x v="54"/>
     <x v="26"/>
   </r>
   <r>
     <x v="3"/>
     <x v="5"/>
     <x v="9"/>
-    <n v="1463"/>
+    <x v="55"/>
     <x v="40"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
     <x v="1"/>
-    <n v="7777"/>
+    <x v="56"/>
     <x v="43"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="12"/>
-    <n v="1085"/>
+    <x v="57"/>
     <x v="44"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
     <x v="6"/>
-    <n v="182"/>
+    <x v="58"/>
     <x v="45"/>
   </r>
   <r>
     <x v="4"/>
     <x v="5"/>
     <x v="18"/>
-    <n v="4242"/>
+    <x v="59"/>
     <x v="46"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="6118"/>
+    <x v="60"/>
     <x v="47"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="14"/>
-    <n v="2317"/>
+    <x v="61"/>
     <x v="48"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
     <x v="10"/>
-    <n v="938"/>
+    <x v="62"/>
     <x v="49"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="16"/>
-    <n v="9709"/>
+    <x v="63"/>
     <x v="26"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
     <x v="13"/>
-    <n v="2205"/>
+    <x v="22"/>
     <x v="50"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
     <x v="9"/>
-    <n v="4487"/>
+    <x v="64"/>
     <x v="51"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="2415"/>
+    <x v="42"/>
     <x v="25"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
     <x v="15"/>
-    <n v="4018"/>
+    <x v="65"/>
     <x v="17"/>
   </r>
   <r>
     <x v="6"/>
     <x v="5"/>
     <x v="15"/>
-    <n v="861"/>
+    <x v="66"/>
     <x v="24"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
     <x v="8"/>
-    <n v="5586"/>
+    <x v="67"/>
     <x v="52"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
     <x v="5"/>
-    <n v="2226"/>
+    <x v="68"/>
     <x v="45"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
     <x v="19"/>
-    <n v="14329"/>
+    <x v="69"/>
     <x v="53"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
     <x v="13"/>
-    <n v="8463"/>
+    <x v="70"/>
     <x v="54"/>
   </r>
   <r>
     <x v="6"/>
     <x v="5"/>
     <x v="12"/>
-    <n v="2891"/>
+    <x v="71"/>
     <x v="27"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
     <x v="14"/>
-    <n v="3773"/>
+    <x v="72"/>
     <x v="55"/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
     <x v="19"/>
-    <n v="854"/>
+    <x v="73"/>
     <x v="56"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
     <x v="9"/>
-    <n v="4970"/>
+    <x v="74"/>
     <x v="39"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="21"/>
-    <n v="98"/>
+    <x v="75"/>
     <x v="57"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="16"/>
-    <n v="13391"/>
+    <x v="76"/>
     <x v="58"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
     <x v="6"/>
-    <n v="8890"/>
+    <x v="77"/>
     <x v="7"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="11"/>
-    <n v="56"/>
+    <x v="78"/>
     <x v="59"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
     <x v="4"/>
-    <n v="3339"/>
+    <x v="47"/>
     <x v="40"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="3808"/>
+    <x v="79"/>
     <x v="60"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
     <x v="11"/>
-    <n v="63"/>
+    <x v="80"/>
     <x v="61"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="18"/>
-    <n v="7812"/>
+    <x v="81"/>
     <x v="62"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="15"/>
-    <n v="7693"/>
+    <x v="16"/>
     <x v="33"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
     <x v="19"/>
-    <n v="973"/>
+    <x v="82"/>
     <x v="17"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="20"/>
-    <n v="567"/>
+    <x v="83"/>
     <x v="63"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="12"/>
-    <n v="2471"/>
+    <x v="84"/>
     <x v="64"/>
   </r>
   <r>
     <x v="6"/>
     <x v="4"/>
     <x v="11"/>
-    <n v="7189"/>
+    <x v="85"/>
     <x v="6"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="19"/>
-    <n v="7455"/>
+    <x v="86"/>
     <x v="65"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
     <x v="21"/>
-    <n v="3108"/>
+    <x v="87"/>
     <x v="6"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
     <x v="4"/>
-    <n v="469"/>
+    <x v="88"/>
     <x v="8"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="14"/>
-    <n v="2737"/>
+    <x v="89"/>
     <x v="66"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="4"/>
-    <n v="4305"/>
+    <x v="90"/>
     <x v="39"/>
   </r>
   <r>
     <x v="2"/>
     <x v="4"/>
     <x v="9"/>
-    <n v="2408"/>
+    <x v="91"/>
     <x v="47"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
     <x v="15"/>
-    <n v="1281"/>
+    <x v="8"/>
     <x v="36"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="12348"/>
+    <x v="92"/>
     <x v="13"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
     <x v="19"/>
-    <n v="3689"/>
+    <x v="93"/>
     <x v="67"/>
   </r>
   <r>
     <x v="5"/>
     <x v="2"/>
     <x v="15"/>
-    <n v="2870"/>
+    <x v="94"/>
     <x v="68"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
     <x v="18"/>
-    <n v="798"/>
+    <x v="95"/>
     <x v="69"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="20"/>
-    <n v="2933"/>
+    <x v="96"/>
     <x v="47"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="2744"/>
+    <x v="97"/>
     <x v="47"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="5"/>
-    <n v="9772"/>
+    <x v="98"/>
     <x v="18"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
     <x v="4"/>
-    <n v="1568"/>
+    <x v="99"/>
     <x v="70"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
     <x v="10"/>
-    <n v="11417"/>
+    <x v="100"/>
     <x v="33"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
     <x v="21"/>
-    <n v="6748"/>
+    <x v="101"/>
     <x v="45"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="18"/>
-    <n v="1407"/>
+    <x v="102"/>
     <x v="29"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="12"/>
-    <n v="2023"/>
+    <x v="103"/>
     <x v="23"/>
   </r>
   <r>
     <x v="6"/>
     <x v="3"/>
     <x v="21"/>
-    <n v="5236"/>
+    <x v="104"/>
     <x v="59"/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
     <x v="15"/>
-    <n v="1925"/>
+    <x v="105"/>
     <x v="71"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
     <x v="8"/>
-    <n v="6608"/>
+    <x v="106"/>
     <x v="72"/>
   </r>
   <r>
     <x v="4"/>
     <x v="5"/>
     <x v="21"/>
-    <n v="8008"/>
+    <x v="107"/>
     <x v="73"/>
   </r>
   <r>
     <x v="9"/>
     <x v="5"/>
     <x v="4"/>
-    <n v="1428"/>
+    <x v="108"/>
     <x v="66"/>
   </r>
   <r>
     <x v="4"/>
     <x v="5"/>
     <x v="2"/>
-    <n v="525"/>
+    <x v="109"/>
     <x v="45"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="1505"/>
+    <x v="110"/>
     <x v="27"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="6755"/>
+    <x v="111"/>
     <x v="74"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="11571"/>
+    <x v="112"/>
     <x v="50"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
     <x v="4"/>
-    <n v="2541"/>
+    <x v="113"/>
     <x v="18"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1526"/>
+    <x v="114"/>
     <x v="75"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="6125"/>
+    <x v="115"/>
     <x v="27"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="18"/>
-    <n v="847"/>
+    <x v="116"/>
     <x v="76"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="18"/>
-    <n v="4753"/>
+    <x v="117"/>
     <x v="68"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
     <x v="5"/>
-    <n v="959"/>
+    <x v="2"/>
     <x v="32"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
     <x v="17"/>
-    <n v="2793"/>
+    <x v="118"/>
     <x v="0"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
     <x v="8"/>
-    <n v="4606"/>
+    <x v="119"/>
     <x v="41"/>
   </r>
   <r>
     <x v="5"/>
     <x v="2"/>
     <x v="12"/>
-    <n v="5551"/>
+    <x v="120"/>
     <x v="74"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="6657"/>
+    <x v="121"/>
     <x v="77"/>
   </r>
   <r>
     <x v="5"/>
     <x v="3"/>
     <x v="9"/>
-    <n v="4438"/>
+    <x v="122"/>
     <x v="78"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <x v="7"/>
-    <n v="168"/>
+    <x v="123"/>
     <x v="79"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
     <x v="9"/>
-    <n v="7777"/>
+    <x v="56"/>
     <x v="40"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
     <x v="9"/>
-    <n v="3339"/>
+    <x v="47"/>
     <x v="80"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
     <x v="5"/>
-    <n v="6391"/>
+    <x v="124"/>
     <x v="45"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
     <x v="7"/>
-    <n v="518"/>
+    <x v="125"/>
     <x v="8"/>
   </r>
   <r>
     <x v="5"/>
     <x v="4"/>
     <x v="19"/>
-    <n v="5677"/>
+    <x v="126"/>
     <x v="81"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <x v="9"/>
-    <n v="6048"/>
+    <x v="127"/>
     <x v="82"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <x v="1"/>
-    <n v="3752"/>
+    <x v="128"/>
     <x v="83"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="12"/>
-    <n v="4480"/>
+    <x v="129"/>
     <x v="84"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="259"/>
+    <x v="130"/>
     <x v="46"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="42"/>
+    <x v="131"/>
     <x v="53"/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
     <x v="21"/>
-    <n v="98"/>
+    <x v="75"/>
     <x v="20"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
     <x v="18"/>
-    <n v="2478"/>
+    <x v="132"/>
     <x v="33"/>
   </r>
   <r>
     <x v="3"/>
     <x v="5"/>
     <x v="5"/>
-    <n v="7847"/>
+    <x v="133"/>
     <x v="85"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="9"/>
-    <n v="9926"/>
+    <x v="134"/>
     <x v="58"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <x v="11"/>
-    <n v="819"/>
+    <x v="135"/>
     <x v="86"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <x v="12"/>
-    <n v="3052"/>
+    <x v="136"/>
     <x v="87"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
     <x v="20"/>
-    <n v="6832"/>
+    <x v="137"/>
     <x v="82"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="10"/>
-    <n v="2016"/>
+    <x v="138"/>
     <x v="88"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
     <x v="20"/>
-    <n v="7322"/>
+    <x v="139"/>
     <x v="38"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="5"/>
-    <n v="357"/>
+    <x v="140"/>
     <x v="89"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
     <x v="4"/>
-    <n v="3192"/>
+    <x v="141"/>
     <x v="29"/>
   </r>
   <r>
     <x v="5"/>
     <x v="2"/>
     <x v="7"/>
-    <n v="8435"/>
+    <x v="142"/>
     <x v="90"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
     <x v="12"/>
-    <n v="0"/>
+    <x v="143"/>
     <x v="32"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
     <x v="17"/>
-    <n v="8862"/>
+    <x v="144"/>
     <x v="37"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <x v="19"/>
-    <n v="3556"/>
+    <x v="145"/>
     <x v="1"/>
   </r>
   <r>
     <x v="6"/>
     <x v="5"/>
     <x v="16"/>
-    <n v="7280"/>
+    <x v="146"/>
     <x v="58"/>
   </r>
   <r>
     <x v="4"/>
     <x v="5"/>
     <x v="0"/>
-    <n v="3402"/>
+    <x v="147"/>
     <x v="91"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <x v="12"/>
-    <n v="4592"/>
+    <x v="148"/>
     <x v="92"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="16"/>
-    <n v="7833"/>
+    <x v="149"/>
     <x v="93"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="20"/>
-    <n v="7651"/>
+    <x v="150"/>
     <x v="83"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="2275"/>
+    <x v="151"/>
     <x v="94"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
     <x v="11"/>
-    <n v="5670"/>
+    <x v="152"/>
     <x v="95"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
     <x v="10"/>
-    <n v="2135"/>
+    <x v="153"/>
     <x v="82"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
     <x v="14"/>
-    <n v="2779"/>
+    <x v="154"/>
     <x v="8"/>
   </r>
   <r>
     <x v="9"/>
     <x v="3"/>
     <x v="5"/>
-    <n v="12950"/>
+    <x v="155"/>
     <x v="26"/>
   </r>
   <r>
     <x v="5"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="2646"/>
+    <x v="12"/>
     <x v="96"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
     <x v="5"/>
-    <n v="3794"/>
+    <x v="156"/>
     <x v="57"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="5"/>
-    <n v="819"/>
+    <x v="135"/>
     <x v="97"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
     <x v="13"/>
-    <n v="2583"/>
+    <x v="157"/>
     <x v="36"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
     <x v="15"/>
-    <n v="4585"/>
+    <x v="158"/>
     <x v="75"/>
   </r>
   <r>
     <x v="6"/>
     <x v="5"/>
     <x v="5"/>
-    <n v="1652"/>
+    <x v="159"/>
     <x v="66"/>
   </r>
   <r>
     <x v="9"/>
     <x v="5"/>
     <x v="21"/>
-    <n v="4991"/>
+    <x v="9"/>
     <x v="47"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
     <x v="10"/>
-    <n v="2009"/>
+    <x v="160"/>
     <x v="98"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="7"/>
-    <n v="1568"/>
+    <x v="99"/>
     <x v="19"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="13"/>
-    <n v="3388"/>
+    <x v="161"/>
     <x v="61"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
     <x v="17"/>
-    <n v="623"/>
+    <x v="162"/>
     <x v="59"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="10073"/>
+    <x v="163"/>
     <x v="12"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
     <x v="21"/>
-    <n v="1561"/>
+    <x v="164"/>
     <x v="82"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
     <x v="18"/>
-    <n v="11522"/>
+    <x v="165"/>
     <x v="20"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
     <x v="11"/>
-    <n v="2317"/>
     <x v="61"/>
+    <x v="61"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="19"/>
-    <n v="3059"/>
+    <x v="166"/>
     <x v="82"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="21"/>
-    <n v="2324"/>
+    <x v="167"/>
     <x v="96"/>
   </r>
   <r>
     <x v="8"/>
     <x v="3"/>
     <x v="21"/>
-    <n v="4956"/>
+    <x v="168"/>
     <x v="99"/>
   </r>
   <r>
     <x v="9"/>
     <x v="5"/>
     <x v="15"/>
-    <n v="5355"/>
+    <x v="169"/>
     <x v="20"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
     <x v="8"/>
-    <n v="7259"/>
+    <x v="170"/>
     <x v="100"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="21"/>
-    <n v="6279"/>
+    <x v="171"/>
     <x v="101"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
     <x v="12"/>
-    <n v="2541"/>
+    <x v="113"/>
     <x v="101"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
     <x v="18"/>
-    <n v="3864"/>
+    <x v="172"/>
     <x v="96"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
     <x v="11"/>
-    <n v="6146"/>
+    <x v="173"/>
     <x v="41"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="2639"/>
+    <x v="174"/>
     <x v="20"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="7"/>
-    <n v="1890"/>
+    <x v="175"/>
     <x v="24"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
     <x v="8"/>
-    <n v="1932"/>
+    <x v="176"/>
     <x v="102"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
     <x v="4"/>
-    <n v="6300"/>
+    <x v="177"/>
     <x v="90"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="560"/>
+    <x v="178"/>
     <x v="62"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="21"/>
-    <n v="2856"/>
+    <x v="179"/>
     <x v="78"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
     <x v="9"/>
-    <n v="707"/>
+    <x v="180"/>
     <x v="85"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="3598"/>
+    <x v="181"/>
     <x v="62"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="7"/>
-    <n v="6853"/>
+    <x v="182"/>
     <x v="103"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="10"/>
-    <n v="4725"/>
+    <x v="183"/>
     <x v="85"/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="10304"/>
+    <x v="184"/>
     <x v="79"/>
   </r>
   <r>
     <x v="3"/>
     <x v="5"/>
     <x v="10"/>
-    <n v="1274"/>
+    <x v="185"/>
     <x v="72"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="1526"/>
+    <x v="114"/>
     <x v="104"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
     <x v="19"/>
-    <n v="3101"/>
+    <x v="186"/>
     <x v="72"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="8"/>
-    <n v="1057"/>
+    <x v="187"/>
     <x v="6"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
     <x v="21"/>
-    <n v="5306"/>
+    <x v="188"/>
     <x v="105"/>
   </r>
   <r>
     <x v="6"/>
     <x v="3"/>
     <x v="17"/>
-    <n v="4018"/>
+    <x v="65"/>
     <x v="99"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
     <x v="10"/>
-    <n v="938"/>
+    <x v="62"/>
     <x v="37"/>
   </r>
   <r>
     <x v="5"/>
     <x v="4"/>
     <x v="3"/>
-    <n v="1778"/>
+    <x v="189"/>
     <x v="106"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="1638"/>
+    <x v="190"/>
     <x v="41"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
     <x v="4"/>
-    <n v="154"/>
+    <x v="191"/>
     <x v="33"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
     <x v="7"/>
-    <n v="9835"/>
+    <x v="192"/>
     <x v="46"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="13"/>
-    <n v="7273"/>
+    <x v="193"/>
     <x v="70"/>
   </r>
   <r>
     <x v="6"/>
     <x v="3"/>
     <x v="7"/>
-    <n v="6909"/>
+    <x v="194"/>
     <x v="62"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
     <x v="17"/>
-    <n v="3920"/>
+    <x v="195"/>
     <x v="97"/>
   </r>
   <r>
     <x v="9"/>
     <x v="3"/>
     <x v="20"/>
-    <n v="4858"/>
+    <x v="196"/>
     <x v="60"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="3549"/>
+    <x v="197"/>
     <x v="107"/>
   </r>
   <r>
     <x v="5"/>
     <x v="3"/>
     <x v="18"/>
-    <n v="966"/>
+    <x v="198"/>
     <x v="108"/>
   </r>
   <r>
     <x v="6"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="385"/>
+    <x v="199"/>
     <x v="109"/>
   </r>
   <r>
     <x v="4"/>
     <x v="5"/>
     <x v="10"/>
-    <n v="2219"/>
+    <x v="200"/>
     <x v="8"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="2954"/>
+    <x v="201"/>
     <x v="37"/>
   </r>
   <r>
     <x v="5"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="280"/>
+    <x v="202"/>
     <x v="15"/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="6118"/>
+    <x v="60"/>
     <x v="85"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="16"/>
-    <n v="4802"/>
+    <x v="203"/>
     <x v="38"/>
   </r>
   <r>
     <x v="2"/>
     <x v="4"/>
     <x v="17"/>
-    <n v="4137"/>
+    <x v="204"/>
     <x v="110"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="14"/>
-    <n v="2023"/>
+    <x v="103"/>
     <x v="111"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="9051"/>
+    <x v="205"/>
     <x v="112"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="19"/>
-    <n v="2919"/>
+    <x v="206"/>
     <x v="101"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
     <x v="7"/>
-    <n v="5915"/>
+    <x v="207"/>
     <x v="107"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="16"/>
-    <n v="2562"/>
+    <x v="208"/>
     <x v="49"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
     <x v="4"/>
-    <n v="8813"/>
+    <x v="209"/>
     <x v="33"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="6111"/>
+    <x v="210"/>
     <x v="107"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
     <x v="6"/>
-    <n v="3507"/>
+    <x v="211"/>
     <x v="3"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
     <x v="11"/>
-    <n v="4319"/>
+    <x v="212"/>
     <x v="26"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
     <x v="21"/>
-    <n v="609"/>
+    <x v="213"/>
     <x v="15"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
     <x v="18"/>
-    <n v="6370"/>
+    <x v="214"/>
     <x v="26"/>
   </r>
   <r>
     <x v="6"/>
     <x v="4"/>
     <x v="15"/>
-    <n v="5474"/>
+    <x v="215"/>
     <x v="23"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="18"/>
-    <n v="3164"/>
+    <x v="216"/>
     <x v="97"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="1302"/>
+    <x v="217"/>
     <x v="113"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <x v="19"/>
-    <n v="7308"/>
+    <x v="218"/>
     <x v="114"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="18"/>
-    <n v="6132"/>
+    <x v="219"/>
     <x v="66"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="8"/>
-    <n v="3472"/>
+    <x v="220"/>
     <x v="70"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="9660"/>
+    <x v="221"/>
     <x v="82"/>
   </r>
   <r>
     <x v="2"/>
     <x v="4"/>
     <x v="21"/>
-    <n v="2436"/>
+    <x v="222"/>
     <x v="115"/>
   </r>
   <r>
     <x v="2"/>
     <x v="4"/>
     <x v="5"/>
-    <n v="9506"/>
+    <x v="223"/>
     <x v="15"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="20"/>
-    <n v="245"/>
+    <x v="224"/>
     <x v="3"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="13"/>
-    <n v="2702"/>
+    <x v="225"/>
     <x v="116"/>
   </r>
   <r>
     <x v="9"/>
     <x v="5"/>
     <x v="9"/>
-    <n v="700"/>
+    <x v="226"/>
     <x v="15"/>
   </r>
   <r>
     <x v="4"/>
     <x v="5"/>
     <x v="9"/>
-    <n v="3759"/>
+    <x v="227"/>
     <x v="53"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
     <x v="9"/>
-    <n v="1589"/>
+    <x v="228"/>
     <x v="77"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
     <x v="19"/>
-    <n v="5194"/>
+    <x v="229"/>
     <x v="3"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="11"/>
-    <n v="945"/>
+    <x v="230"/>
     <x v="8"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
     <x v="6"/>
-    <n v="1988"/>
+    <x v="231"/>
     <x v="40"/>
   </r>
   <r>
     <x v="4"/>
     <x v="5"/>
     <x v="1"/>
-    <n v="6734"/>
+    <x v="232"/>
     <x v="61"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="217"/>
+    <x v="233"/>
     <x v="38"/>
   </r>
   <r>
     <x v="6"/>
     <x v="5"/>
     <x v="7"/>
-    <n v="6279"/>
+    <x v="171"/>
     <x v="117"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="11"/>
-    <n v="4424"/>
+    <x v="234"/>
     <x v="58"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
     <x v="9"/>
-    <n v="189"/>
+    <x v="235"/>
     <x v="45"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="7"/>
-    <n v="490"/>
+    <x v="236"/>
     <x v="79"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="20"/>
-    <n v="434"/>
+    <x v="237"/>
     <x v="15"/>
   </r>
   <r>
     <x v="5"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="10129"/>
+    <x v="238"/>
     <x v="67"/>
   </r>
   <r>
     <x v="8"/>
     <x v="3"/>
     <x v="19"/>
-    <n v="1652"/>
+    <x v="159"/>
     <x v="27"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <x v="20"/>
-    <n v="6433"/>
+    <x v="239"/>
     <x v="111"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
     <x v="14"/>
-    <n v="2212"/>
+    <x v="240"/>
     <x v="88"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="15"/>
-    <n v="609"/>
+    <x v="213"/>
     <x v="115"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="17"/>
-    <n v="1638"/>
+    <x v="190"/>
     <x v="45"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
     <x v="16"/>
-    <n v="3829"/>
+    <x v="241"/>
     <x v="118"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
     <x v="16"/>
-    <n v="5775"/>
+    <x v="242"/>
     <x v="90"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
     <x v="13"/>
-    <n v="1071"/>
+    <x v="243"/>
     <x v="106"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
     <x v="14"/>
-    <n v="5019"/>
+    <x v="48"/>
     <x v="53"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="16"/>
-    <n v="2863"/>
+    <x v="244"/>
     <x v="90"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="12"/>
-    <n v="1617"/>
+    <x v="245"/>
     <x v="89"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <x v="21"/>
-    <n v="6818"/>
+    <x v="246"/>
     <x v="49"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="16"/>
-    <n v="6657"/>
+    <x v="121"/>
     <x v="100"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
     <x v="9"/>
-    <n v="2919"/>
+    <x v="206"/>
     <x v="66"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
     <x v="6"/>
-    <n v="3094"/>
+    <x v="247"/>
     <x v="78"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <x v="17"/>
-    <n v="2989"/>
+    <x v="248"/>
     <x v="107"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <x v="18"/>
-    <n v="2268"/>
+    <x v="249"/>
     <x v="41"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="6"/>
-    <n v="4753"/>
+    <x v="117"/>
     <x v="78"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
     <x v="15"/>
-    <n v="7511"/>
+    <x v="250"/>
     <x v="12"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="6"/>
-    <n v="4326"/>
+    <x v="251"/>
     <x v="80"/>
   </r>
   <r>
     <x v="3"/>
     <x v="5"/>
     <x v="14"/>
-    <n v="4935"/>
+    <x v="252"/>
     <x v="89"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="4781"/>
+    <x v="253"/>
     <x v="61"/>
   </r>
   <r>
     <x v="6"/>
     <x v="4"/>
     <x v="4"/>
-    <n v="7483"/>
+    <x v="254"/>
     <x v="101"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="6860"/>
+    <x v="255"/>
     <x v="89"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="12"/>
-    <n v="9002"/>
+    <x v="256"/>
     <x v="29"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
     <x v="12"/>
-    <n v="1400"/>
+    <x v="257"/>
     <x v="32"/>
   </r>
   <r>
     <x v="9"/>
     <x v="5"/>
     <x v="7"/>
-    <n v="4053"/>
+    <x v="258"/>
     <x v="118"/>
   </r>
   <r>
     <x v="5"/>
     <x v="2"/>
     <x v="6"/>
-    <n v="2149"/>
+    <x v="259"/>
     <x v="88"/>
   </r>
   <r>
     <x v="8"/>
     <x v="3"/>
     <x v="12"/>
-    <n v="3640"/>
+    <x v="260"/>
     <x v="59"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="14"/>
-    <n v="630"/>
+    <x v="261"/>
     <x v="38"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="18"/>
-    <n v="2429"/>
+    <x v="262"/>
     <x v="11"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
     <x v="4"/>
-    <n v="2142"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="6454"/>
+    <x v="263"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="264"/>
     <x v="6"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
     <x v="10"/>
-    <n v="4487"/>
+    <x v="64"/>
     <x v="119"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="938"/>
+    <x v="62"/>
     <x v="91"/>
   </r>
   <r>
     <x v="8"/>
     <x v="4"/>
     <x v="21"/>
-    <n v="8841"/>
+    <x v="265"/>
     <x v="77"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="4270"/>
+    <x v="266"/>
     <x v="75"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
     <x v="19"/>
-    <n v="3416"/>
+    <x v="267"/>
     <x v="108"/>
   </r>
   <r>
     <x v="5"/>
     <x v="3"/>
     <x v="12"/>
-    <n v="6181"/>
+    <x v="268"/>
     <x v="115"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
     <x v="19"/>
-    <n v="4550"/>
+    <x v="269"/>
     <x v="89"/>
   </r>
   <r>
     <x v="5"/>
     <x v="2"/>
     <x v="17"/>
-    <n v="357"/>
+    <x v="140"/>
     <x v="120"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
     <x v="5"/>
-    <n v="1022"/>
+    <x v="270"/>
     <x v="7"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
     <x v="16"/>
-    <n v="2527"/>
+    <x v="271"/>
     <x v="94"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="12"/>
-    <n v="5075"/>
+    <x v="45"/>
     <x v="39"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="19"/>
-    <n v="1750"/>
+    <x v="272"/>
     <x v="15"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
     <x v="5"/>
-    <n v="6559"/>
+    <x v="273"/>
     <x v="48"/>
   </r>
   <r>
     <x v="3"/>
     <x v="5"/>
     <x v="4"/>
-    <n v="413"/>
+    <x v="274"/>
     <x v="96"/>
   </r>
   <r>
     <x v="8"/>
     <x v="3"/>
     <x v="11"/>
-    <n v="3311"/>
+    <x v="275"/>
     <x v="92"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="21"/>
-    <n v="5558"/>
+    <x v="276"/>
     <x v="121"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="18"/>
-    <n v="3864"/>
+    <x v="172"/>
     <x v="61"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="16"/>
-    <n v="5992"/>
+    <x v="277"/>
     <x v="122"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
     <x v="8"/>
-    <n v="616"/>
+    <x v="278"/>
     <x v="104"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
     <x v="9"/>
-    <n v="742"/>
+    <x v="279"/>
     <x v="44"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="9247"/>
+    <x v="280"/>
     <x v="90"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="9"/>
-    <n v="2443"/>
+    <x v="281"/>
     <x v="51"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="11"/>
-    <n v="4494"/>
+    <x v="282"/>
     <x v="15"/>
   </r>
   <r>
     <x v="8"/>
     <x v="4"/>
     <x v="7"/>
-    <n v="1799"/>
+    <x v="283"/>
     <x v="123"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
     <x v="16"/>
-    <n v="84"/>
+    <x v="284"/>
     <x v="6"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
     <x v="21"/>
-    <n v="7658"/>
+    <x v="285"/>
     <x v="29"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
     <x v="21"/>
-    <n v="98"/>
+    <x v="75"/>
     <x v="24"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
     <x v="2"/>
-    <n v="2513"/>
+    <x v="286"/>
     <x v="11"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="7140"/>
+    <x v="287"/>
     <x v="19"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
     <x v="6"/>
-    <n v="3185"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="805"/>
+    <x v="288"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="289"/>
     <x v="107"/>
   </r>
   <r>
     <x v="5"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="714"/>
+    <x v="290"/>
     <x v="29"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
     <x v="13"/>
-    <n v="441"/>
+    <x v="291"/>
     <x v="101"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="17"/>
-    <n v="1526"/>
+    <x v="114"/>
     <x v="11"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
     <x v="12"/>
-    <n v="532"/>
+    <x v="292"/>
     <x v="61"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
     <x v="5"/>
-    <n v="5278"/>
+    <x v="293"/>
     <x v="46"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="17"/>
-    <n v="3570"/>
+    <x v="294"/>
     <x v="79"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
     <x v="9"/>
-    <n v="1414"/>
+    <x v="295"/>
     <x v="40"/>
   </r>
   <r>
     <x v="5"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="7056"/>
+    <x v="296"/>
     <x v="124"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="6"/>
-    <n v="1022"/>
+    <x v="270"/>
     <x v="37"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
     <x v="7"/>
-    <n v="5691"/>
+    <x v="297"/>
     <x v="49"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="12222"/>
+    <x v="298"/>
     <x v="125"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <x v="15"/>
-    <n v="2807"/>
+    <x v="299"/>
     <x v="70"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
     <x v="13"/>
-    <n v="2142"/>
+    <x v="263"/>
     <x v="3"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="21"/>
-    <n v="3073"/>
+    <x v="300"/>
     <x v="61"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
     <x v="15"/>
-    <n v="1554"/>
+    <x v="301"/>
     <x v="45"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
     <x v="10"/>
-    <n v="10486"/>
+    <x v="302"/>
     <x v="77"/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
     <x v="9"/>
-    <n v="9002"/>
+    <x v="256"/>
     <x v="26"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="7"/>
-    <n v="3472"/>
+    <x v="220"/>
     <x v="22"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
     <x v="12"/>
-    <n v="2961"/>
+    <x v="303"/>
     <x v="106"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
     <x v="20"/>
-    <n v="3969"/>
+    <x v="304"/>
     <x v="110"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="8295"/>
+    <x v="305"/>
     <x v="105"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
     <x v="12"/>
-    <n v="140"/>
+    <x v="306"/>
     <x v="40"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="8"/>
-    <n v="175"/>
+    <x v="307"/>
     <x v="14"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="4879"/>
+    <x v="308"/>
     <x v="102"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="12"/>
-    <n v="10311"/>
+    <x v="24"/>
     <x v="15"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
     <x v="14"/>
-    <n v="1050"/>
+    <x v="309"/>
     <x v="82"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
     <x v="16"/>
-    <n v="1274"/>
+    <x v="185"/>
     <x v="6"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
     <x v="19"/>
-    <n v="3745"/>
+    <x v="310"/>
     <x v="16"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="16"/>
-    <n v="777"/>
+    <x v="311"/>
     <x v="45"/>
   </r>
   <r>
     <x v="9"/>
     <x v="3"/>
     <x v="18"/>
-    <n v="3605"/>
+    <x v="312"/>
     <x v="70"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="13"/>
-    <n v="5495"/>
+    <x v="313"/>
     <x v="99"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="4445"/>
+    <x v="314"/>
     <x v="39"/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
     <x v="12"/>
-    <n v="13461"/>
+    <x v="315"/>
     <x v="74"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
     <x v="13"/>
-    <n v="8351"/>
+    <x v="316"/>
     <x v="122"/>
   </r>
   <r>
     <x v="8"/>
     <x v="4"/>
     <x v="9"/>
-    <n v="3423"/>
+    <x v="317"/>
     <x v="49"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
     <x v="5"/>
-    <n v="1505"/>
+    <x v="110"/>
     <x v="126"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="13"/>
-    <n v="5383"/>
+    <x v="318"/>
     <x v="110"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
     <x v="20"/>
-    <n v="8918"/>
+    <x v="319"/>
     <x v="127"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="5"/>
-    <n v="6174"/>
+    <x v="320"/>
     <x v="68"/>
   </r>
   <r>
     <x v="6"/>
     <x v="3"/>
     <x v="4"/>
-    <n v="952"/>
+    <x v="321"/>
     <x v="15"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <x v="14"/>
-    <n v="3360"/>
+    <x v="322"/>
     <x v="34"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="3199"/>
+    <x v="323"/>
     <x v="67"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
     <x v="8"/>
-    <n v="9310"/>
+    <x v="324"/>
     <x v="28"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
     <x v="13"/>
-    <n v="2296"/>
+    <x v="325"/>
     <x v="65"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
     <x v="21"/>
-    <n v="3290"/>
+    <x v="326"/>
     <x v="126"/>
   </r>
   <r>
     <x v="5"/>
     <x v="3"/>
     <x v="20"/>
-    <n v="273"/>
+    <x v="327"/>
     <x v="54"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
     <x v="20"/>
-    <n v="2093"/>
+    <x v="328"/>
     <x v="111"/>
   </r>
   <r>
     <x v="9"/>
     <x v="5"/>
     <x v="6"/>
-    <n v="2975"/>
+    <x v="329"/>
     <x v="115"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
     <x v="5"/>
-    <n v="3941"/>
+    <x v="330"/>
     <x v="59"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="3836"/>
+    <x v="331"/>
     <x v="82"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="4039"/>
+    <x v="332"/>
     <x v="128"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
     <x v="5"/>
-    <n v="6496"/>
+    <x v="333"/>
     <x v="79"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
     <x v="13"/>
-    <n v="6160"/>
+    <x v="334"/>
     <x v="129"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="6"/>
-    <n v="3514"/>
+    <x v="335"/>
     <x v="130"/>
   </r>
   <r>
     <x v="6"/>
     <x v="4"/>
     <x v="13"/>
-    <n v="4823"/>
+    <x v="336"/>
     <x v="33"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="10"/>
-    <n v="1155"/>
+    <x v="337"/>
     <x v="46"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="5"/>
-    <n v="1925"/>
+    <x v="105"/>
     <x v="90"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="17"/>
-    <n v="5537"/>
+    <x v="338"/>
     <x v="40"/>
   </r>
   <r>
     <x v="8"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="6454"/>
+    <x v="264"/>
     <x v="124"/>
   </r>
   <r>
     <x v="6"/>
     <x v="3"/>
     <x v="20"/>
-    <n v="1421"/>
+    <x v="339"/>
     <x v="124"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="15"/>
-    <n v="1624"/>
+    <x v="0"/>
     <x v="131"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
     <x v="3"/>
-    <n v="6265"/>
+    <x v="340"/>
     <x v="27"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
     <x v="3"/>
-    <n v="7553"/>
+    <x v="341"/>
     <x v="85"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
     <x v="5"/>
-    <n v="1337"/>
+    <x v="342"/>
     <x v="24"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="3549"/>
+    <x v="197"/>
     <x v="33"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
     <x v="12"/>
-    <n v="1477"/>
+    <x v="343"/>
     <x v="20"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="10"/>
-    <n v="539"/>
+    <x v="344"/>
     <x v="59"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="12"/>
-    <n v="6916"/>
+    <x v="345"/>
     <x v="107"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
     <x v="18"/>
-    <n v="2933"/>
+    <x v="96"/>
     <x v="110"/>
   </r>
   <r>
     <x v="8"/>
     <x v="4"/>
     <x v="3"/>
-    <n v="3101"/>
+    <x v="186"/>
     <x v="107"/>
   </r>
   <r>
     <x v="5"/>
     <x v="2"/>
     <x v="19"/>
-    <n v="2527"/>
+    <x v="271"/>
     <x v="35"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="4"/>
-    <n v="7490"/>
+    <x v="346"/>
     <x v="72"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <x v="21"/>
-    <n v="140"/>
+    <x v="306"/>
     <x v="37"/>
   </r>
   <r>
     <x v="5"/>
     <x v="2"/>
     <x v="13"/>
-    <n v="1687"/>
+    <x v="347"/>
     <x v="8"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <x v="18"/>
-    <n v="3507"/>
+    <x v="211"/>
     <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <x v="15"/>
-    <n v="7826"/>
+    <x v="348"/>
     <x v="130"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
     <x v="6"/>
-    <n v="5845"/>
+    <x v="349"/>
     <x v="132"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="21"/>
-    <n v="2576"/>
+    <x v="350"/>
     <x v="9"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
     <x v="4"/>
-    <n v="721"/>
+    <x v="351"/>
     <x v="58"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="924"/>
+    <x v="352"/>
     <x v="119"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="12"/>
-    <n v="6650"/>
+    <x v="353"/>
     <x v="90"/>
   </r>
   <r>
     <x v="3"/>
     <x v="5"/>
     <x v="17"/>
-    <n v="1533"/>
+    <x v="354"/>
     <x v="115"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
     <x v="18"/>
-    <n v="721"/>
+    <x v="351"/>
     <x v="20"/>
   </r>
   <r>
     <x v="6"/>
     <x v="3"/>
     <x v="18"/>
-    <n v="2527"/>
+    <x v="271"/>
     <x v="65"/>
   </r>
   <r>
     <x v="5"/>
     <x v="3"/>
     <x v="11"/>
-    <n v="399"/>
+    <x v="355"/>
     <x v="44"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="336"/>
+    <x v="18"/>
     <x v="77"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
     <x v="21"/>
-    <n v="6356"/>
+    <x v="356"/>
     <x v="92"/>
   </r>
   <r>
     <x v="5"/>
     <x v="3"/>
     <x v="7"/>
-    <n v="1106"/>
+    <x v="357"/>
     <x v="2"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="7"/>
-    <n v="3773"/>
+    <x v="72"/>
     <x v="63"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
     <x v="0"/>
-    <n v="203"/>
+    <x v="358"/>
     <x v="133"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
     <x v="11"/>
-    <n v="182"/>
+    <x v="58"/>
     <x v="90"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="6"/>
-    <n v="1239"/>
+    <x v="359"/>
     <x v="89"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="1274"/>
+    <x v="185"/>
     <x v="76"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
     <x v="14"/>
-    <n v="3374"/>
+    <x v="360"/>
     <x v="123"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
     <x v="7"/>
-    <n v="861"/>
+    <x v="66"/>
     <x v="47"/>
   </r>
   <r>
     <x v="8"/>
     <x v="4"/>
     <x v="15"/>
-    <n v="1652"/>
+    <x v="159"/>
     <x v="28"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
     <x v="2"/>
-    <n v="1743"/>
+    <x v="361"/>
     <x v="134"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="20"/>
-    <n v="1715"/>
+    <x v="362"/>
     <x v="15"/>
   </r>
   <r>
     <x v="5"/>
     <x v="2"/>
     <x v="9"/>
-    <n v="10941"/>
+    <x v="363"/>
     <x v="40"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="18"/>
-    <n v="770"/>
+    <x v="364"/>
     <x v="108"/>
   </r>
   <r>
     <x v="9"/>
     <x v="3"/>
     <x v="8"/>
-    <n v="1106"/>
+    <x v="357"/>
     <x v="53"/>
   </r>
   <r>
     <x v="3"/>
     <x v="5"/>
     <x v="1"/>
-    <n v="63"/>
+    <x v="80"/>
     <x v="135"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="4"/>
-    <n v="3703"/>
+    <x v="365"/>
     <x v="61"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
     <x v="6"/>
-    <n v="7385"/>
+    <x v="366"/>
     <x v="76"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <x v="13"/>
-    <n v="5544"/>
+    <x v="367"/>
     <x v="80"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="9"/>
-    <n v="6321"/>
+    <x v="368"/>
     <x v="15"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
     <x v="21"/>
-    <n v="6104"/>
+    <x v="369"/>
     <x v="7"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="3010"/>
+    <x v="370"/>
     <x v="38"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <x v="16"/>
-    <n v="3388"/>
+    <x v="161"/>
     <x v="12"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
     <x v="7"/>
-    <n v="10220"/>
+    <x v="371"/>
     <x v="96"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="2471"/>
+    <x v="84"/>
     <x v="47"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="17"/>
-    <n v="3108"/>
+    <x v="87"/>
     <x v="58"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="3010"/>
+    <x v="370"/>
     <x v="37"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
     <x v="18"/>
-    <n v="11256"/>
+    <x v="372"/>
     <x v="29"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
     <x v="13"/>
-    <n v="3367"/>
+    <x v="373"/>
     <x v="66"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="10"/>
-    <n v="3143"/>
+    <x v="374"/>
     <x v="21"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
     <x v="17"/>
-    <n v="4305"/>
+    <x v="90"/>
     <x v="136"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
     <x v="7"/>
-    <n v="2639"/>
+    <x v="174"/>
     <x v="18"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="17"/>
-    <n v="1869"/>
+    <x v="375"/>
     <x v="14"/>
   </r>
   <r>
     <x v="6"/>
     <x v="4"/>
     <x v="18"/>
-    <n v="6783"/>
+    <x v="376"/>
     <x v="120"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="7"/>
-    <n v="5698"/>
+    <x v="377"/>
     <x v="87"/>
   </r>
   <r>
     <x v="9"/>
     <x v="3"/>
     <x v="15"/>
-    <n v="1099"/>
+    <x v="378"/>
     <x v="101"/>
   </r>
   <r>
     <x v="6"/>
     <x v="5"/>
     <x v="14"/>
-    <n v="11466"/>
+    <x v="379"/>
     <x v="71"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="2499"/>
+    <x v="380"/>
     <x v="9"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="7539"/>
+    <x v="381"/>
     <x v="41"/>
   </r>
   <r>
     <x v="8"/>
     <x v="5"/>
     <x v="17"/>
-    <n v="9513"/>
+    <x v="382"/>
     <x v="126"/>
   </r>
   <r>
     <x v="3"/>
     <x v="5"/>
     <x v="19"/>
-    <n v="1393"/>
+    <x v="383"/>
     <x v="120"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
     <x v="6"/>
-    <n v="938"/>
+    <x v="62"/>
     <x v="122"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="8"/>
-    <n v="4858"/>
+    <x v="196"/>
     <x v="3"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
     <x v="16"/>
-    <n v="581"/>
+    <x v="384"/>
     <x v="55"/>
   </r>
   <r>
     <x v="5"/>
     <x v="3"/>
     <x v="21"/>
-    <n v="4662"/>
+    <x v="385"/>
     <x v="21"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="5"/>
-    <n v="3899"/>
+    <x v="386"/>
     <x v="49"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="14"/>
-    <n v="2499"/>
+    <x v="380"/>
     <x v="23"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="15"/>
-    <n v="8960"/>
+    <x v="387"/>
     <x v="105"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
     <x v="8"/>
-    <n v="4396"/>
+    <x v="388"/>
     <x v="32"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="1239"/>
+    <x v="359"/>
     <x v="37"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <x v="17"/>
-    <n v="812"/>
+    <x v="389"/>
     <x v="137"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="2226"/>
+    <x v="68"/>
     <x v="109"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
     <x v="9"/>
-    <n v="10185"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="2233"/>
+    <x v="390"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="391"/>
     <x v="99"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
     <x v="17"/>
-    <n v="2282"/>
+    <x v="392"/>
     <x v="61"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
     <x v="18"/>
-    <n v="6552"/>
+    <x v="393"/>
     <x v="75"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
     <x v="17"/>
-    <n v="6531"/>
+    <x v="394"/>
     <x v="19"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <x v="5"/>
-    <n v="4137"/>
+    <x v="204"/>
     <x v="61"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="8"/>
-    <n v="3409"/>
+    <x v="395"/>
     <x v="107"/>
   </r>
   <r>
     <x v="4"/>
     <x v="5"/>
     <x v="4"/>
-    <n v="560"/>
+    <x v="178"/>
     <x v="101"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
     <x v="9"/>
-    <n v="1603"/>
+    <x v="396"/>
     <x v="71"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <x v="7"/>
-    <n v="4242"/>
+    <x v="59"/>
     <x v="115"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <x v="8"/>
-    <n v="1834"/>
+    <x v="397"/>
     <x v="60"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="17"/>
-    <n v="602"/>
+    <x v="398"/>
     <x v="75"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
     <x v="4"/>
-    <n v="3157"/>
+    <x v="399"/>
     <x v="20"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
     <x v="16"/>
-    <n v="2478"/>
+    <x v="132"/>
     <x v="123"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
     <x v="7"/>
-    <n v="8316"/>
+    <x v="400"/>
     <x v="42"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
     <x v="13"/>
-    <n v="7588"/>
+    <x v="401"/>
     <x v="27"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="5"/>
-    <n v="9576"/>
+    <x v="402"/>
     <x v="19"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
     <x v="9"/>
-    <n v="6188"/>
+    <x v="403"/>
     <x v="21"/>
   </r>
   <r>
     <x v="6"/>
     <x v="5"/>
     <x v="10"/>
-    <n v="2485"/>
+    <x v="404"/>
     <x v="34"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
     <x v="19"/>
-    <n v="630"/>
+    <x v="261"/>
     <x v="13"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
     <x v="17"/>
-    <n v="2072"/>
+    <x v="405"/>
     <x v="78"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="10"/>
-    <n v="8113"/>
+    <x v="406"/>
     <x v="119"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="18"/>
-    <n v="4123"/>
+    <x v="407"/>
     <x v="138"/>
   </r>
   <r>
     <x v="6"/>
     <x v="5"/>
     <x v="1"/>
-    <n v="1001"/>
+    <x v="408"/>
     <x v="45"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="16"/>
-    <n v="1071"/>
+    <x v="243"/>
     <x v="28"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="14"/>
-    <n v="7077"/>
+    <x v="409"/>
     <x v="111"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
     <x v="7"/>
-    <n v="511"/>
+    <x v="410"/>
     <x v="7"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
     <x v="9"/>
-    <n v="11606"/>
+    <x v="411"/>
     <x v="139"/>
   </r>
   <r>
     <x v="6"/>
     <x v="5"/>
     <x v="3"/>
-    <n v="8533"/>
+    <x v="412"/>
     <x v="136"/>
   </r>
   <r>
     <x v="5"/>
     <x v="4"/>
     <x v="4"/>
-    <n v="8995"/>
+    <x v="413"/>
     <x v="22"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
     <x v="20"/>
-    <n v="7105"/>
+    <x v="414"/>
     <x v="57"/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
     <x v="10"/>
-    <n v="3969"/>
+    <x v="304"/>
     <x v="135"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
     <x v="20"/>
-    <n v="1204"/>
+    <x v="415"/>
     <x v="2"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="4"/>
-    <n v="2212"/>
+    <x v="240"/>
     <x v="6"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <x v="19"/>
-    <n v="9086"/>
+    <x v="416"/>
     <x v="44"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="4"/>
-    <n v="1232"/>
+    <x v="417"/>
     <x v="89"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="4179"/>
+    <x v="418"/>
     <x v="107"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <x v="10"/>
-    <n v="1407"/>
+    <x v="102"/>
     <x v="110"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
     <x v="4"/>
-    <n v="4389"/>
+    <x v="419"/>
     <x v="53"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="11"/>
-    <n v="10164"/>
+    <x v="420"/>
     <x v="95"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
     <x v="15"/>
-    <n v="5292"/>
+    <x v="421"/>
     <x v="13"/>
   </r>
   <r>
     <x v="5"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="273"/>
+    <x v="327"/>
     <x v="32"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="13"/>
-    <n v="1358"/>
+    <x v="422"/>
     <x v="47"/>
   </r>
   <r>
     <x v="6"/>
     <x v="3"/>
     <x v="14"/>
-    <n v="5439"/>
+    <x v="54"/>
     <x v="35"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <x v="20"/>
-    <n v="2373"/>
+    <x v="423"/>
     <x v="93"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="14147"/>
+    <x v="424"/>
     <x v="47"/>
   </r>
   <r>
     <x v="3"/>
     <x v="5"/>
     <x v="21"/>
-    <n v="5075"/>
+    <x v="45"/>
     <x v="118"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <x v="16"/>
-    <n v="8085"/>
+    <x v="425"/>
     <x v="51"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <x v="17"/>
-    <n v="3710"/>
+    <x v="426"/>
     <x v="25"/>
   </r>
   <r>
     <x v="9"/>
     <x v="3"/>
     <x v="19"/>
-    <n v="4998"/>
+    <x v="427"/>
     <x v="61"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="20"/>
-    <n v="959"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
     <x v="21"/>
-    <n v="7385"/>
+    <x v="366"/>
     <x v="70"/>
   </r>
   <r>
     <x v="3"/>
     <x v="5"/>
     <x v="8"/>
-    <n v="3206"/>
+    <x v="428"/>
     <x v="20"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="819"/>
+    <x v="135"/>
     <x v="126"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
     <x v="10"/>
-    <n v="11592"/>
+    <x v="429"/>
     <x v="49"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
     <x v="8"/>
-    <n v="3199"/>
+    <x v="323"/>
     <x v="90"/>
   </r>
   <r>
     <x v="5"/>
     <x v="4"/>
     <x v="16"/>
-    <n v="5075"/>
+    <x v="45"/>
     <x v="111"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
     <x v="20"/>
-    <n v="5733"/>
+    <x v="430"/>
     <x v="56"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="5810"/>
+    <x v="431"/>
     <x v="85"/>
   </r>
   <r>
     <x v="8"/>
     <x v="3"/>
     <x v="8"/>
-    <n v="714"/>
+    <x v="290"/>
     <x v="26"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
     <x v="15"/>
-    <n v="9814"/>
+    <x v="432"/>
     <x v="16"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
     <x v="17"/>
-    <n v="1281"/>
+    <x v="8"/>
     <x v="47"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="10"/>
-    <n v="8848"/>
+    <x v="433"/>
     <x v="22"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
     <x v="1"/>
-    <n v="7126"/>
+    <x v="434"/>
     <x v="35"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
     <x v="6"/>
-    <n v="6552"/>
+    <x v="393"/>
     <x v="2"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
     <x v="17"/>
-    <n v="1253"/>
+    <x v="435"/>
     <x v="13"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
     <x v="2"/>
-    <n v="13678"/>
+    <x v="436"/>
     <x v="95"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
     <x v="11"/>
-    <n v="1561"/>
+    <x v="164"/>
     <x v="22"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="5"/>
-    <n v="6244"/>
+    <x v="437"/>
     <x v="140"/>
   </r>
   <r>
     <x v="6"/>
     <x v="3"/>
     <x v="16"/>
-    <n v="7014"/>
+    <x v="438"/>
     <x v="26"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="3710"/>
+    <x v="426"/>
     <x v="98"/>
   </r>
   <r>
     <x v="8"/>
     <x v="4"/>
     <x v="18"/>
-    <n v="3234"/>
+    <x v="439"/>
     <x v="13"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="3892"/>
+    <x v="440"/>
     <x v="28"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="644"/>
+    <x v="441"/>
     <x v="21"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="4"/>
-    <n v="3864"/>
+    <x v="172"/>
     <x v="99"/>
   </r>
   <r>
     <x v="8"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="2765"/>
+    <x v="442"/>
     <x v="19"/>
   </r>
   <r>
     <x v="9"/>
     <x v="5"/>
     <x v="17"/>
-    <n v="4543"/>
+    <x v="443"/>
     <x v="114"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
     <x v="13"/>
-    <n v="371"/>
+    <x v="444"/>
     <x v="21"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
     <x v="12"/>
-    <n v="4480"/>
+    <x v="129"/>
     <x v="99"/>
   </r>
   <r>
     <x v="8"/>
     <x v="4"/>
     <x v="16"/>
-    <n v="1904"/>
+    <x v="36"/>
     <x v="59"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
-    <n v="756"/>
+    <x v="445"/>
     <x v="141"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="17"/>
-    <n v="4774"/>
+    <x v="446"/>
     <x v="70"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <x v="19"/>
-    <n v="84"/>
+    <x v="284"/>
     <x v="134"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
     <x v="16"/>
-    <n v="6489"/>
+    <x v="447"/>
     <x v="2"/>
   </r>
   <r>
     <x v="8"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="2142"/>
+    <x v="263"/>
     <x v="104"/>
   </r>
   <r>
     <x v="6"/>
     <x v="4"/>
     <x v="20"/>
-    <n v="175"/>
+    <x v="307"/>
     <x v="14"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="14"/>
-    <n v="4284"/>
+    <x v="448"/>
     <x v="105"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
     <x v="11"/>
-    <n v="2583"/>
+    <x v="157"/>
     <x v="140"/>
   </r>
   <r>
     <x v="2"/>
     <x v="4"/>
     <x v="18"/>
-    <n v="8099"/>
+    <x v="449"/>
     <x v="61"/>
   </r>
   <r>
     <x v="9"/>
     <x v="5"/>
     <x v="8"/>
-    <n v="1449"/>
+    <x v="450"/>
     <x v="51"/>
   </r>
   <r>
     <x v="5"/>
     <x v="2"/>
     <x v="20"/>
-    <n v="42"/>
+    <x v="131"/>
     <x v="29"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
     <x v="21"/>
-    <n v="7035"/>
+    <x v="451"/>
     <x v="25"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
     <x v="10"/>
-    <n v="105"/>
+    <x v="452"/>
     <x v="142"/>
   </r>
   <r>
     <x v="6"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="5642"/>
+    <x v="453"/>
     <x v="66"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
     <x v="10"/>
-    <n v="175"/>
+    <x v="307"/>
     <x v="139"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
     <x v="16"/>
-    <n v="1981"/>
+    <x v="454"/>
     <x v="103"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
     <x v="15"/>
-    <n v="1036"/>
+    <x v="455"/>
     <x v="79"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
     <x v="20"/>
-    <n v="1470"/>
+    <x v="456"/>
     <x v="37"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="6"/>
-    <n v="9058"/>
+    <x v="457"/>
     <x v="110"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
     <x v="10"/>
-    <n v="3885"/>
+    <x v="458"/>
     <x v="84"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="14"/>
-    <n v="3689"/>
+    <x v="93"/>
     <x v="8"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="11"/>
-    <n v="1358"/>
+    <x v="422"/>
     <x v="110"/>
   </r>
   <r>
     <x v="8"/>
     <x v="4"/>
     <x v="5"/>
-    <n v="6797"/>
+    <x v="459"/>
     <x v="92"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="16"/>
-    <n v="1386"/>
+    <x v="460"/>
     <x v="120"/>
   </r>
   <r>
     <x v="2"/>
     <x v="4"/>
     <x v="20"/>
-    <n v="6139"/>
+    <x v="461"/>
     <x v="104"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
     <x v="10"/>
-    <n v="861"/>
+    <x v="66"/>
     <x v="17"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
     <x v="3"/>
-    <n v="9527"/>
+    <x v="462"/>
     <x v="112"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="6958"/>
+    <x v="463"/>
     <x v="112"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="959"/>
+    <x v="2"/>
     <x v="32"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1589"/>
+    <x v="228"/>
     <x v="66"/>
   </r>
   <r>
     <x v="8"/>
     <x v="3"/>
     <x v="16"/>
-    <n v="973"/>
+    <x v="82"/>
     <x v="59"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="12"/>
-    <n v="5096"/>
+    <x v="464"/>
     <x v="8"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
     <x v="19"/>
-    <n v="5936"/>
+    <x v="465"/>
     <x v="20"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
     <x v="21"/>
-    <n v="4242"/>
+    <x v="59"/>
     <x v="8"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
     <x v="19"/>
-    <n v="11025"/>
+    <x v="466"/>
     <x v="107"/>
   </r>
   <r>
     <x v="2"/>
     <x v="5"/>
     <x v="7"/>
-    <n v="1785"/>
+    <x v="10"/>
     <x v="56"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <x v="2"/>
-    <n v="2905"/>
+    <x v="467"/>
     <x v="73"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
     <x v="16"/>
-    <n v="399"/>
+    <x v="355"/>
     <x v="95"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <x v="5"/>
-    <n v="7294"/>
+    <x v="468"/>
     <x v="116"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
     <x v="21"/>
-    <n v="1946"/>
+    <x v="469"/>
     <x v="53"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="8"/>
-    <n v="2898"/>
+    <x v="470"/>
     <x v="83"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <x v="9"/>
-    <n v="1806"/>
+    <x v="471"/>
     <x v="123"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="20"/>
-    <n v="1988"/>
+    <x v="231"/>
     <x v="109"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="3752"/>
+    <x v="128"/>
     <x v="135"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="20"/>
-    <n v="12250"/>
+    <x v="472"/>
     <x v="123"/>
   </r>
   <r>
     <x v="5"/>
     <x v="4"/>
     <x v="20"/>
-    <n v="98"/>
+    <x v="75"/>
     <x v="30"/>
   </r>
   <r>
     <x v="5"/>
     <x v="2"/>
     <x v="10"/>
-    <n v="4151"/>
+    <x v="473"/>
     <x v="66"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="5397"/>
+    <x v="474"/>
     <x v="90"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <x v="9"/>
-    <n v="4529"/>
+    <x v="475"/>
     <x v="20"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="7112"/>
+    <x v="476"/>
     <x v="89"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
     <x v="20"/>
-    <n v="1288"/>
+    <x v="477"/>
     <x v="77"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="21"/>
-    <n v="490"/>
+    <x v="236"/>
     <x v="18"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
-    <n v="7238"/>
+    <x v="478"/>
     <x v="112"/>
   </r>
   <r>
     <x v="9"/>
     <x v="3"/>
     <x v="10"/>
-    <n v="3997"/>
+    <x v="479"/>
     <x v="59"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
     <x v="0"/>
-    <n v="1323"/>
+    <x v="480"/>
     <x v="104"/>
   </r>
   <r>
     <x v="7"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="2779"/>
+    <x v="154"/>
     <x v="68"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="6"/>
-    <n v="5663"/>
+    <x v="481"/>
     <x v="143"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
     <x v="16"/>
-    <n v="3283"/>
+    <x v="482"/>
     <x v="99"/>
   </r>
   <r>
     <x v="3"/>
     <x v="2"/>
     <x v="6"/>
-    <n v="1246"/>
+    <x v="483"/>
     <x v="36"/>
   </r>
   <r>
     <x v="4"/>
     <x v="5"/>
     <x v="14"/>
-    <n v="4207"/>
+    <x v="484"/>
     <x v="112"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
     <x v="18"/>
-    <n v="2401"/>
+    <x v="485"/>
     <x v="18"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="19"/>
-    <n v="4991"/>
+    <x v="9"/>
     <x v="28"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="1358"/>
+    <x v="422"/>
     <x v="129"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="10"/>
-    <n v="2548"/>
+    <x v="486"/>
     <x v="142"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
     <x v="11"/>
-    <n v="7140"/>
+    <x v="287"/>
     <x v="55"/>
   </r>
   <r>
     <x v="8"/>
     <x v="3"/>
     <x v="18"/>
-    <n v="6279"/>
+    <x v="171"/>
     <x v="3"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
     <x v="6"/>
-    <n v="6013"/>
+    <x v="487"/>
     <x v="47"/>
   </r>
   <r>
     <x v="8"/>
     <x v="2"/>
     <x v="6"/>
-    <n v="8995"/>
+    <x v="413"/>
     <x v="45"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="3"/>
-    <n v="6594"/>
+    <x v="488"/>
     <x v="107"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="5"/>
-    <n v="42"/>
+    <x v="131"/>
     <x v="96"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
     <x v="16"/>
-    <n v="3003"/>
+    <x v="489"/>
     <x v="131"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="11"/>
-    <n v="4123"/>
+    <x v="407"/>
     <x v="32"/>
   </r>
   <r>
     <x v="4"/>
     <x v="5"/>
     <x v="3"/>
-    <n v="6139"/>
+    <x v="461"/>
     <x v="50"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="6"/>
-    <n v="1722"/>
+    <x v="490"/>
     <x v="112"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
     <x v="5"/>
-    <n v="6790"/>
+    <x v="491"/>
     <x v="63"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="3"/>
-    <n v="854"/>
+    <x v="73"/>
     <x v="123"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="4"/>
-    <n v="6244"/>
+    <x v="437"/>
     <x v="20"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
     <x v="19"/>
-    <n v="6958"/>
+    <x v="463"/>
     <x v="20"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="19"/>
-    <n v="4333"/>
+    <x v="492"/>
     <x v="12"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
     <x v="4"/>
-    <n v="10129"/>
+    <x v="238"/>
     <x v="90"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="11"/>
-    <n v="1848"/>
+    <x v="493"/>
     <x v="131"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="6"/>
-    <n v="4144"/>
+    <x v="494"/>
     <x v="118"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="7"/>
-    <n v="3990"/>
+    <x v="495"/>
     <x v="101"/>
   </r>
   <r>
     <x v="2"/>
     <x v="4"/>
     <x v="8"/>
-    <n v="1099"/>
+    <x v="378"/>
     <x v="42"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
     <x v="13"/>
-    <n v="2107"/>
+    <x v="496"/>
     <x v="0"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="13"/>
-    <n v="2569"/>
+    <x v="497"/>
     <x v="134"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="15"/>
-    <n v="665"/>
+    <x v="498"/>
     <x v="109"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
     <x v="7"/>
-    <n v="6286"/>
+    <x v="499"/>
     <x v="38"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
     <x v="10"/>
-    <n v="1330"/>
+    <x v="500"/>
     <x v="21"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="7"/>
-    <n v="8778"/>
+    <x v="501"/>
     <x v="6"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="3976"/>
+    <x v="33"/>
     <x v="74"/>
   </r>
   <r>
     <x v="7"/>
     <x v="4"/>
     <x v="12"/>
-    <n v="6265"/>
+    <x v="340"/>
     <x v="32"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="9289"/>
+    <x v="502"/>
     <x v="14"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="3598"/>
+    <x v="181"/>
     <x v="63"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="18"/>
-    <n v="3416"/>
+    <x v="267"/>
     <x v="123"/>
   </r>
   <r>
     <x v="9"/>
     <x v="4"/>
     <x v="0"/>
-    <n v="924"/>
+    <x v="352"/>
     <x v="33"/>
   </r>
   <r>
     <x v="6"/>
     <x v="3"/>
     <x v="10"/>
-    <n v="9492"/>
+    <x v="503"/>
     <x v="107"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
     <x v="10"/>
-    <n v="5026"/>
+    <x v="504"/>
     <x v="23"/>
   </r>
   <r>
     <x v="9"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="3234"/>
+    <x v="439"/>
     <x v="25"/>
   </r>
   <r>
     <x v="4"/>
     <x v="5"/>
     <x v="8"/>
-    <n v="7105"/>
+    <x v="414"/>
     <x v="144"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
     <x v="20"/>
-    <n v="2870"/>
+    <x v="94"/>
     <x v="36"/>
   </r>
   <r>
     <x v="7"/>
     <x v="3"/>
     <x v="5"/>
-    <n v="4018"/>
+    <x v="65"/>
     <x v="89"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="16"/>
-    <n v="714"/>
+    <x v="290"/>
     <x v="22"/>
   </r>
   <r>
     <x v="2"/>
     <x v="4"/>
     <x v="4"/>
-    <n v="3850"/>
+    <x v="505"/>
     <x v="27"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED988B3A-B9AD-4358-8D6D-4B5A60650786}" name="PivotTable5" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C88AAB03-2ABF-404B-9731-16A70653B5B9}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Top 5 Product">
+  <location ref="F2:G8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField multipleItemSelectionAllowed="1" showAll="0">
+      <items count="11">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="23">
+        <item x="8"/>
+        <item x="0"/>
+        <item x="17"/>
+        <item x="15"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="21"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="18"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="20"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="6" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="146">
+        <item x="105"/>
+        <item x="107"/>
+        <item x="49"/>
+        <item x="47"/>
+        <item x="9"/>
+        <item x="25"/>
+        <item x="36"/>
+        <item x="33"/>
+        <item x="118"/>
+        <item x="82"/>
+        <item x="26"/>
+        <item x="130"/>
+        <item x="38"/>
+        <item x="40"/>
+        <item x="90"/>
+        <item x="101"/>
+        <item x="45"/>
+        <item x="59"/>
+        <item x="6"/>
+        <item x="112"/>
+        <item x="110"/>
+        <item x="41"/>
+        <item x="14"/>
+        <item x="42"/>
+        <item x="29"/>
+        <item x="8"/>
+        <item x="111"/>
+        <item x="62"/>
+        <item x="79"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="66"/>
+        <item x="70"/>
+        <item x="115"/>
+        <item x="27"/>
+        <item x="104"/>
+        <item x="123"/>
+        <item x="51"/>
+        <item x="0"/>
+        <item x="88"/>
+        <item x="12"/>
+        <item x="61"/>
+        <item x="89"/>
+        <item x="76"/>
+        <item x="131"/>
+        <item x="32"/>
+        <item x="50"/>
+        <item x="19"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="53"/>
+        <item x="34"/>
+        <item x="39"/>
+        <item x="57"/>
+        <item x="17"/>
+        <item x="55"/>
+        <item x="23"/>
+        <item x="99"/>
+        <item x="85"/>
+        <item x="96"/>
+        <item x="126"/>
+        <item x="28"/>
+        <item x="21"/>
+        <item x="37"/>
+        <item x="71"/>
+        <item x="24"/>
+        <item x="108"/>
+        <item x="58"/>
+        <item x="20"/>
+        <item x="46"/>
+        <item x="7"/>
+        <item x="83"/>
+        <item x="65"/>
+        <item x="98"/>
+        <item x="134"/>
+        <item x="72"/>
+        <item x="63"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="117"/>
+        <item x="75"/>
+        <item x="93"/>
+        <item x="78"/>
+        <item x="109"/>
+        <item x="74"/>
+        <item x="35"/>
+        <item x="81"/>
+        <item x="48"/>
+        <item x="122"/>
+        <item x="135"/>
+        <item x="106"/>
+        <item x="44"/>
+        <item x="100"/>
+        <item x="60"/>
+        <item x="30"/>
+        <item x="143"/>
+        <item x="3"/>
+        <item x="129"/>
+        <item x="95"/>
+        <item x="68"/>
+        <item x="77"/>
+        <item x="97"/>
+        <item x="56"/>
+        <item x="67"/>
+        <item x="136"/>
+        <item x="142"/>
+        <item x="92"/>
+        <item x="114"/>
+        <item x="139"/>
+        <item x="119"/>
+        <item x="137"/>
+        <item x="16"/>
+        <item x="64"/>
+        <item x="133"/>
+        <item x="80"/>
+        <item x="120"/>
+        <item x="84"/>
+        <item x="116"/>
+        <item x="91"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="87"/>
+        <item x="121"/>
+        <item x="113"/>
+        <item x="31"/>
+        <item x="141"/>
+        <item x="4"/>
+        <item x="125"/>
+        <item x="144"/>
+        <item x="5"/>
+        <item x="128"/>
+        <item x="140"/>
+        <item x="94"/>
+        <item x="132"/>
+        <item x="73"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="124"/>
+        <item x="54"/>
+        <item x="43"/>
+        <item x="86"/>
+        <item x="127"/>
+        <item x="69"/>
+        <item x="52"/>
+        <item x="138"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Customers" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="count" evalOrder="-1" id="7" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 top="0" val="5" filterVal="5"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6EC7D7B-EF0F-4757-944F-971A62C27552}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Sales Person">
+  <location ref="F16:G22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
+      <items count="11">
+        <item x="0"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="6" showAll="0">
+      <items count="507">
+        <item x="143"/>
+        <item x="25"/>
+        <item x="131"/>
+        <item x="78"/>
+        <item x="80"/>
+        <item x="284"/>
+        <item x="75"/>
+        <item x="452"/>
+        <item x="306"/>
+        <item x="191"/>
+        <item x="123"/>
+        <item x="307"/>
+        <item x="58"/>
+        <item x="235"/>
+        <item x="358"/>
+        <item x="233"/>
+        <item x="43"/>
+        <item x="224"/>
+        <item x="13"/>
+        <item x="130"/>
+        <item x="327"/>
+        <item x="202"/>
+        <item x="18"/>
+        <item x="140"/>
+        <item x="444"/>
+        <item x="199"/>
+        <item x="355"/>
+        <item x="274"/>
+        <item x="237"/>
+        <item x="291"/>
+        <item x="88"/>
+        <item x="236"/>
+        <item x="50"/>
+        <item x="410"/>
+        <item x="125"/>
+        <item x="109"/>
+        <item x="292"/>
+        <item x="344"/>
+        <item x="30"/>
+        <item x="178"/>
+        <item x="83"/>
+        <item x="384"/>
+        <item x="398"/>
+        <item x="213"/>
+        <item x="278"/>
+        <item x="162"/>
+        <item x="261"/>
+        <item x="441"/>
+        <item x="498"/>
+        <item x="226"/>
+        <item x="180"/>
+        <item x="290"/>
+        <item x="351"/>
+        <item x="279"/>
+        <item x="445"/>
+        <item x="364"/>
+        <item x="311"/>
+        <item x="95"/>
+        <item x="289"/>
+        <item x="389"/>
+        <item x="135"/>
+        <item x="116"/>
+        <item x="73"/>
+        <item x="66"/>
+        <item x="352"/>
+        <item x="62"/>
+        <item x="230"/>
+        <item x="321"/>
+        <item x="2"/>
+        <item x="198"/>
+        <item x="82"/>
+        <item x="408"/>
+        <item x="270"/>
+        <item x="455"/>
+        <item x="309"/>
+        <item x="187"/>
+        <item x="243"/>
+        <item x="57"/>
+        <item x="378"/>
+        <item x="357"/>
+        <item x="34"/>
+        <item x="337"/>
+        <item x="415"/>
+        <item x="417"/>
+        <item x="359"/>
+        <item x="483"/>
+        <item x="435"/>
+        <item x="185"/>
+        <item x="8"/>
+        <item x="477"/>
+        <item x="217"/>
+        <item x="480"/>
+        <item x="500"/>
+        <item x="342"/>
+        <item x="422"/>
+        <item x="460"/>
+        <item x="383"/>
+        <item x="257"/>
+        <item x="102"/>
+        <item x="295"/>
+        <item x="339"/>
+        <item x="108"/>
+        <item x="41"/>
+        <item x="450"/>
+        <item x="55"/>
+        <item x="456"/>
+        <item x="343"/>
+        <item x="110"/>
+        <item x="114"/>
+        <item x="354"/>
+        <item x="301"/>
+        <item x="164"/>
+        <item x="99"/>
+        <item x="228"/>
+        <item x="396"/>
+        <item x="245"/>
+        <item x="0"/>
+        <item x="190"/>
+        <item x="159"/>
+        <item x="347"/>
+        <item x="21"/>
+        <item x="362"/>
+        <item x="490"/>
+        <item x="361"/>
+        <item x="272"/>
+        <item x="23"/>
+        <item x="189"/>
+        <item x="10"/>
+        <item x="283"/>
+        <item x="471"/>
+        <item x="397"/>
+        <item x="493"/>
+        <item x="375"/>
+        <item x="175"/>
+        <item x="36"/>
+        <item x="105"/>
+        <item x="176"/>
+        <item x="469"/>
+        <item x="26"/>
+        <item x="454"/>
+        <item x="231"/>
+        <item x="160"/>
+        <item x="138"/>
+        <item x="103"/>
+        <item x="405"/>
+        <item x="328"/>
+        <item x="4"/>
+        <item x="496"/>
+        <item x="15"/>
+        <item x="153"/>
+        <item x="263"/>
+        <item x="259"/>
+        <item x="22"/>
+        <item x="240"/>
+        <item x="200"/>
+        <item x="68"/>
+        <item x="391"/>
+        <item x="249"/>
+        <item x="151"/>
+        <item x="392"/>
+        <item x="38"/>
+        <item x="325"/>
+        <item x="61"/>
+        <item x="167"/>
+        <item x="423"/>
+        <item x="485"/>
+        <item x="91"/>
+        <item x="42"/>
+        <item x="262"/>
+        <item x="222"/>
+        <item x="281"/>
+        <item x="14"/>
+        <item x="84"/>
+        <item x="132"/>
+        <item x="404"/>
+        <item x="380"/>
+        <item x="286"/>
+        <item x="271"/>
+        <item x="113"/>
+        <item x="486"/>
+        <item x="208"/>
+        <item x="497"/>
+        <item x="350"/>
+        <item x="157"/>
+        <item x="174"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="225"/>
+        <item x="89"/>
+        <item x="97"/>
+        <item x="442"/>
+        <item x="154"/>
+        <item x="118"/>
+        <item x="299"/>
+        <item x="179"/>
+        <item x="244"/>
+        <item x="94"/>
+        <item x="71"/>
+        <item x="470"/>
+        <item x="467"/>
+        <item x="206"/>
+        <item x="96"/>
+        <item x="201"/>
+        <item x="303"/>
+        <item x="329"/>
+        <item x="248"/>
+        <item x="489"/>
+        <item x="370"/>
+        <item x="136"/>
+        <item x="166"/>
+        <item x="300"/>
+        <item x="247"/>
+        <item x="186"/>
+        <item x="87"/>
+        <item x="374"/>
+        <item x="399"/>
+        <item x="216"/>
+        <item x="288"/>
+        <item x="141"/>
+        <item x="323"/>
+        <item x="428"/>
+        <item x="439"/>
+        <item x="37"/>
+        <item x="482"/>
+        <item x="326"/>
+        <item x="275"/>
+        <item x="47"/>
+        <item x="322"/>
+        <item x="373"/>
+        <item x="360"/>
+        <item x="161"/>
+        <item x="147"/>
+        <item x="395"/>
+        <item x="267"/>
+        <item x="317"/>
+        <item x="220"/>
+        <item x="211"/>
+        <item x="335"/>
+        <item x="197"/>
+        <item x="145"/>
+        <item x="294"/>
+        <item x="181"/>
+        <item x="312"/>
+        <item x="260"/>
+        <item x="93"/>
+        <item x="365"/>
+        <item x="426"/>
+        <item x="310"/>
+        <item x="128"/>
+        <item x="227"/>
+        <item x="72"/>
+        <item x="156"/>
+        <item x="79"/>
+        <item x="241"/>
+        <item x="331"/>
+        <item x="505"/>
+        <item x="172"/>
+        <item x="458"/>
+        <item x="440"/>
+        <item x="386"/>
+        <item x="195"/>
+        <item x="330"/>
+        <item x="304"/>
+        <item x="33"/>
+        <item x="11"/>
+        <item x="495"/>
+        <item x="479"/>
+        <item x="65"/>
+        <item x="332"/>
+        <item x="258"/>
+        <item x="407"/>
+        <item x="204"/>
+        <item x="494"/>
+        <item x="473"/>
+        <item x="418"/>
+        <item x="484"/>
+        <item x="59"/>
+        <item x="266"/>
+        <item x="448"/>
+        <item x="90"/>
+        <item x="212"/>
+        <item x="251"/>
+        <item x="492"/>
+        <item x="419"/>
+        <item x="388"/>
+        <item x="40"/>
+        <item x="234"/>
+        <item x="122"/>
+        <item x="314"/>
+        <item x="129"/>
+        <item x="64"/>
+        <item x="282"/>
+        <item x="475"/>
+        <item x="443"/>
+        <item x="269"/>
+        <item x="158"/>
+        <item x="148"/>
+        <item x="119"/>
+        <item x="385"/>
+        <item x="28"/>
+        <item x="183"/>
+        <item x="117"/>
+        <item x="53"/>
+        <item x="446"/>
+        <item x="253"/>
+        <item x="203"/>
+        <item x="336"/>
+        <item x="196"/>
+        <item x="308"/>
+        <item x="252"/>
+        <item x="44"/>
+        <item x="168"/>
+        <item x="74"/>
+        <item x="9"/>
+        <item x="427"/>
+        <item x="7"/>
+        <item x="48"/>
+        <item x="504"/>
+        <item x="45"/>
+        <item x="464"/>
+        <item x="229"/>
+        <item x="104"/>
+        <item x="293"/>
+        <item x="421"/>
+        <item x="188"/>
+        <item x="169"/>
+        <item x="318"/>
+        <item x="474"/>
+        <item x="54"/>
+        <item x="215"/>
+        <item x="313"/>
+        <item x="338"/>
+        <item x="367"/>
+        <item x="120"/>
+        <item x="276"/>
+        <item x="67"/>
+        <item x="453"/>
+        <item x="481"/>
+        <item x="152"/>
+        <item x="126"/>
+        <item x="297"/>
+        <item x="377"/>
+        <item x="430"/>
+        <item x="242"/>
+        <item x="431"/>
+        <item x="32"/>
+        <item x="349"/>
+        <item x="207"/>
+        <item x="465"/>
+        <item x="277"/>
+        <item x="487"/>
+        <item x="35"/>
+        <item x="127"/>
+        <item x="369"/>
+        <item x="210"/>
+        <item x="60"/>
+        <item x="115"/>
+        <item x="219"/>
+        <item x="461"/>
+        <item x="173"/>
+        <item x="334"/>
+        <item x="320"/>
+        <item x="268"/>
+        <item x="403"/>
+        <item x="437"/>
+        <item x="340"/>
+        <item x="171"/>
+        <item x="499"/>
+        <item x="177"/>
+        <item x="27"/>
+        <item x="368"/>
+        <item x="356"/>
+        <item x="214"/>
+        <item x="124"/>
+        <item x="29"/>
+        <item x="239"/>
+        <item x="264"/>
+        <item x="447"/>
+        <item x="333"/>
+        <item x="394"/>
+        <item x="393"/>
+        <item x="273"/>
+        <item x="52"/>
+        <item x="488"/>
+        <item x="106"/>
+        <item x="353"/>
+        <item x="121"/>
+        <item x="1"/>
+        <item x="232"/>
+        <item x="101"/>
+        <item x="111"/>
+        <item x="376"/>
+        <item x="491"/>
+        <item x="459"/>
+        <item x="246"/>
+        <item x="137"/>
+        <item x="182"/>
+        <item x="255"/>
+        <item x="194"/>
+        <item x="345"/>
+        <item x="463"/>
+        <item x="39"/>
+        <item x="438"/>
+        <item x="31"/>
+        <item x="451"/>
+        <item x="296"/>
+        <item x="409"/>
+        <item x="414"/>
+        <item x="476"/>
+        <item x="434"/>
+        <item x="287"/>
+        <item x="85"/>
+        <item x="478"/>
+        <item x="170"/>
+        <item x="193"/>
+        <item x="146"/>
+        <item x="468"/>
+        <item x="218"/>
+        <item x="139"/>
+        <item x="366"/>
+        <item x="86"/>
+        <item x="254"/>
+        <item x="346"/>
+        <item x="250"/>
+        <item x="381"/>
+        <item x="341"/>
+        <item x="401"/>
+        <item x="150"/>
+        <item x="285"/>
+        <item x="16"/>
+        <item x="56"/>
+        <item x="81"/>
+        <item x="348"/>
+        <item x="149"/>
+        <item x="133"/>
+        <item x="107"/>
+        <item x="425"/>
+        <item x="449"/>
+        <item x="406"/>
+        <item x="20"/>
+        <item x="51"/>
+        <item x="305"/>
+        <item x="400"/>
+        <item x="316"/>
+        <item x="142"/>
+        <item x="70"/>
+        <item x="412"/>
+        <item x="501"/>
+        <item x="209"/>
+        <item x="265"/>
+        <item x="433"/>
+        <item x="144"/>
+        <item x="5"/>
+        <item x="77"/>
+        <item x="319"/>
+        <item x="387"/>
+        <item x="413"/>
+        <item x="256"/>
+        <item x="205"/>
+        <item x="457"/>
+        <item x="416"/>
+        <item x="46"/>
+        <item x="280"/>
+        <item x="502"/>
+        <item x="324"/>
+        <item x="19"/>
+        <item x="503"/>
+        <item x="223"/>
+        <item x="382"/>
+        <item x="462"/>
+        <item x="402"/>
+        <item x="3"/>
+        <item x="221"/>
+        <item x="63"/>
+        <item x="98"/>
+        <item x="432"/>
+        <item x="192"/>
+        <item x="134"/>
+        <item x="163"/>
+        <item x="238"/>
+        <item x="420"/>
+        <item x="390"/>
+        <item x="371"/>
+        <item x="184"/>
+        <item x="24"/>
+        <item x="302"/>
+        <item x="363"/>
+        <item x="466"/>
+        <item x="372"/>
+        <item x="100"/>
+        <item x="379"/>
+        <item x="165"/>
+        <item x="112"/>
+        <item x="429"/>
+        <item x="411"/>
+        <item x="298"/>
+        <item x="472"/>
+        <item x="92"/>
+        <item x="155"/>
+        <item x="76"/>
+        <item x="315"/>
+        <item x="436"/>
+        <item x="424"/>
+        <item x="69"/>
+        <item x="17"/>
+        <item x="49"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0" numFmtId="6"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="count" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="5" filterVal="5"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED988B3A-B9AD-4358-8D6D-4B5A60650786}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Product">
+  <location ref="C4:D10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="11">
@@ -6264,11 +7631,11 @@
     <pivotField showAll="0">
       <items count="7">
         <item x="4"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6456,16 +7823,16 @@
   </rowFields>
   <rowItems count="6">
     <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
       <x v="7"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="16"/>
     </i>
     <i>
       <x v="17"/>
@@ -6515,113 +7882,21 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6EC7D7B-EF0F-4757-944F-971A62C27552}" name="PivotTable3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="7"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item h="1" x="2"/>
-        <item h="1" x="5"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="6" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0" numFmtId="6"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Geography" xr10:uid="{69D05187-4380-439B-B8FF-45010CE13B73}" sourceName="Geography">
   <pivotTables>
     <pivotTable tabId="5" name="PivotTable5"/>
+    <pivotTable tabId="5" name="PivotTable1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="135919027">
       <items count="6">
         <i x="4" s="1"/>
-        <i x="2"/>
-        <i x="5"/>
-        <i x="0"/>
-        <i x="3"/>
-        <i x="1"/>
+        <i x="2" s="1"/>
+        <i x="5" s="1"/>
+        <i x="0" s="1"/>
+        <i x="3" s="1"/>
+        <i x="1" s="1"/>
       </items>
     </tabular>
   </data>
@@ -6967,8 +8242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF3D445-01B8-41DC-BC6B-3FFEFD767073}">
   <dimension ref="A1:H648"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18010,22 +19285,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2C34CB-AE2E-4418-9B75-250EEC3D8EF2}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="C2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" customWidth="1"/>
+    <col min="9" max="10" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="43" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="43" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="45" max="47" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="48" max="49" width="6.36328125" bestFit="1" customWidth="1"/>
@@ -18073,165 +19353,186 @@
     <col min="150" max="150" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1">
+        <v>137795</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>137004</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1">
+        <v>145418</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1">
+        <v>139531</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="4">
+        <v>17991</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>148981</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1">
+        <v>708729</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>271719</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1">
+        <v>294280</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1">
+        <v>305599</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1">
+        <v>274680</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1">
+        <v>270914</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1">
-        <v>42154</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1">
-        <v>34279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>47593</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="1">
-        <v>28973</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1">
-        <v>17192</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1">
-        <v>34237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1">
-        <v>40089</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1">
-        <v>25151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1">
-        <v>50897</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1">
-        <v>32396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1">
-        <v>42644</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1">
-        <v>155036</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1">
-        <v>39347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>40320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1">
-        <v>37226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1">
-        <v>37968</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="1">
-        <v>395430</v>
+      <c r="G22" s="1">
+        <v>1417192</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId4"/>
+        <x14:slicer r:id="rId6"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/Excel Files/Pivot_Tables_and_Charts.xlsx
+++ b/Excel Files/Pivot_Tables_and_Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Data_Analyst_Projects_Excel\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357542D5-51C2-488F-B70E-9DAC91051083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2A4F47-03E6-4BEC-B904-4D8197C12836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0A6FA225-84FF-421B-974B-4E9A80F7474D}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -225,14 +225,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6754,7 +6753,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C88AAB03-2ABF-404B-9731-16A70653B5B9}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Top 5 Product">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C88AAB03-2ABF-404B-9731-16A70653B5B9}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Top 5 Product">
   <location ref="F2:G8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField multipleItemSelectionAllowed="1" showAll="0">
@@ -7013,7 +7012,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6EC7D7B-EF0F-4757-944F-971A62C27552}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Sales Person">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6EC7D7B-EF0F-4757-944F-971A62C27552}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Sales Person">
   <location ref="F16:G22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
@@ -7610,7 +7609,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED988B3A-B9AD-4358-8D6D-4B5A60650786}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Product">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED988B3A-B9AD-4358-8D6D-4B5A60650786}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Product">
   <location ref="C4:D10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -19371,7 +19370,7 @@
       <c r="F3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3">
         <v>3399</v>
       </c>
     </row>
@@ -19385,7 +19384,7 @@
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4">
         <v>3831</v>
       </c>
     </row>
@@ -19399,7 +19398,7 @@
       <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>2925</v>
       </c>
     </row>
@@ -19413,7 +19412,7 @@
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6">
         <v>4065</v>
       </c>
     </row>
@@ -19427,7 +19426,7 @@
       <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7">
         <v>3771</v>
       </c>
     </row>
@@ -19441,7 +19440,7 @@
       <c r="F8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8">
         <v>17991</v>
       </c>
     </row>
@@ -19540,21 +19539,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010099119DDDED45C74A87A71B959ADEF25C" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34c46684ec65debd5098d452cf445e29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c047a066-50a4-4b81-a7b5-ff110b6f8957" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab52620c50c2e58bd4b2243cf03c85ca" ns3:_="">
     <xsd:import namespace="c047a066-50a4-4b81-a7b5-ff110b6f8957"/>
@@ -19704,31 +19688,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C3254F1-0BFA-414A-9E4F-3E76DF049EDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c047a066-50a4-4b81-a7b5-ff110b6f8957"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6E4B220-6115-426D-B957-BEF4159EDD9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D073BA6B-74CC-4584-8F33-80B364EB24F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19744,4 +19719,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6E4B220-6115-426D-B957-BEF4159EDD9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C3254F1-0BFA-414A-9E4F-3E76DF049EDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c047a066-50a4-4b81-a7b5-ff110b6f8957"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>